--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_11_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_11_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2837.541826163961</v>
+        <v>23918.92574136779</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7457037.737393553</v>
+        <v>7428029.320514712</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23341324.93606566</v>
+        <v>23323525.94945212</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4570391.992643643</v>
+        <v>4585677.131606536</v>
       </c>
     </row>
     <row r="11">
@@ -7979,25 +7981,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K2" t="n">
-        <v>105.8056161847214</v>
+        <v>122.0365346358061</v>
       </c>
       <c r="L2" t="n">
-        <v>85.78632439852493</v>
+        <v>105.9222139730819</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>74.42176767202952</v>
       </c>
       <c r="O2" t="n">
-        <v>65.20892354519972</v>
+        <v>86.70771710415687</v>
       </c>
       <c r="P2" t="n">
-        <v>98.17069248095632</v>
+        <v>116.5194153913582</v>
       </c>
       <c r="Q2" t="n">
-        <v>133.0864964302902</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R2" t="n">
         <v>42.58424007769262</v>
@@ -8058,7 +8060,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K3" t="n">
-        <v>57.65595408036968</v>
+        <v>68.68019772140312</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>45.801031517992</v>
       </c>
       <c r="Q3" t="n">
-        <v>83.41864916277152</v>
+        <v>92.13336211952077</v>
       </c>
       <c r="R3" t="n">
         <v>29.49804203773589</v>
@@ -8140,16 +8142,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L4" t="n">
-        <v>79.25802099849831</v>
+        <v>87.76745019286052</v>
       </c>
       <c r="M4" t="n">
-        <v>79.55121249250526</v>
+        <v>88.52321246794781</v>
       </c>
       <c r="N4" t="n">
-        <v>67.97665074265473</v>
+        <v>76.73531661208723</v>
       </c>
       <c r="O4" t="n">
-        <v>87.8197306940173</v>
+        <v>95.90977625558899</v>
       </c>
       <c r="P4" t="n">
         <v>87.48425302749862</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>104.889258789408</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K5" t="n">
-        <v>94.6755543817487</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L5" t="n">
-        <v>71.97849854454964</v>
+        <v>85.78632439852493</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>85.58838417758693</v>
+        <v>98.17069248095632</v>
       </c>
       <c r="Q5" t="n">
-        <v>123.6377068975464</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R5" t="n">
         <v>42.58424007769262</v>
@@ -8295,7 +8297,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K6" t="n">
-        <v>50.09627633166346</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q6" t="n">
-        <v>77.442690741435</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R6" t="n">
         <v>29.49804203773589</v>
@@ -8377,16 +8379,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L7" t="n">
-        <v>73.42283224274789</v>
+        <v>79.25802099849831</v>
       </c>
       <c r="M7" t="n">
-        <v>73.3988241034014</v>
+        <v>79.55121249250526</v>
       </c>
       <c r="N7" t="n">
-        <v>61.97055239817956</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O7" t="n">
-        <v>82.27212675770768</v>
+        <v>87.8197306940173</v>
       </c>
       <c r="P7" t="n">
         <v>87.48425302749862</v>
@@ -8450,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>97.38162427947184</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8468,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8529,10 +8531,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J9" t="n">
-        <v>81.18949827734528</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8620,7 +8622,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>87.74555168308848</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8705,10 +8707,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>56.54187083839039</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>101.8249850515391</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>42.58424007769262</v>
@@ -8766,7 +8768,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J12" t="n">
-        <v>75.45031945264532</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8787,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>63.64706979377851</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -8851,19 +8853,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L13" t="n">
-        <v>59.95218091677091</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N13" t="n">
-        <v>48.1053528280334</v>
+        <v>45.91806968008439</v>
       </c>
       <c r="O13" t="n">
-        <v>69.46537080709682</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P13" t="n">
-        <v>82.93013512200093</v>
+        <v>81.2014108898193</v>
       </c>
       <c r="Q13" t="n">
         <v>42.34223702878295</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>87.74555168308848</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8945,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>101.8249850515391</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>42.58424007769262</v>
@@ -9003,7 +9005,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
-        <v>75.45031945264532</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9088,19 +9090,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N16" t="n">
-        <v>48.1053528280334</v>
+        <v>45.91806968008439</v>
       </c>
       <c r="O16" t="n">
-        <v>69.46537080709682</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P16" t="n">
-        <v>82.93013512200093</v>
+        <v>81.2014108898193</v>
       </c>
       <c r="Q16" t="n">
         <v>42.34223702878295</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>87.74555168308848</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9182,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>101.8249850515391</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R17" t="n">
         <v>42.58424007769262</v>
@@ -9240,7 +9242,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
-        <v>75.45031945264532</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9325,19 +9327,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>45.91806968008439</v>
       </c>
       <c r="O19" t="n">
-        <v>69.46537080709682</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>82.93013512200093</v>
+        <v>81.2014108898193</v>
       </c>
       <c r="Q19" t="n">
         <v>42.34223702878295</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9419,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R20" t="n">
         <v>42.58424007769262</v>
@@ -9477,7 +9479,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>63.64706979377851</v>
+        <v>61.47076291397909</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9562,19 +9564,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L22" t="n">
-        <v>59.95218091677091</v>
+        <v>57.82713911783087</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>56.955352380707</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>45.9180696800844</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>67.44506079792964</v>
       </c>
       <c r="P22" t="n">
-        <v>82.93013512200093</v>
+        <v>81.2014108898193</v>
       </c>
       <c r="Q22" t="n">
         <v>42.34223702878295</v>
@@ -9653,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>56.54187083839039</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>42.58424007769262</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9716,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>75.45031945264532</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K24" t="n">
-        <v>32.64460726796537</v>
+        <v>29.89154616318336</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9799,19 +9801,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>57.82713911783087</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>48.1053528280334</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>69.46537080709682</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>82.93013512200093</v>
+        <v>81.2014108898193</v>
       </c>
       <c r="Q25" t="n">
         <v>42.34223702878295</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>87.74555168308848</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9890,10 +9892,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>56.54187083839039</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>101.8249850515391</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>42.58424007769262</v>
@@ -9951,7 +9953,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>75.45031945264532</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9972,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>63.64706979377851</v>
+        <v>61.47076291397909</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10036,19 +10038,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>57.82713911783087</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>56.955352380707</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>45.9180696800844</v>
       </c>
       <c r="O28" t="n">
-        <v>69.46537080709682</v>
+        <v>67.44506079792964</v>
       </c>
       <c r="P28" t="n">
-        <v>82.93013512200093</v>
+        <v>81.2014108898193</v>
       </c>
       <c r="Q28" t="n">
         <v>42.34223702878295</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>87.74555168308848</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10130,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R29" t="n">
         <v>42.58424007769262</v>
@@ -10188,7 +10190,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>75.45031945264532</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10209,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>61.47076291397909</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10273,19 +10275,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>57.82713911783087</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>56.955352380707</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>45.9180696800844</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>67.44506079792964</v>
       </c>
       <c r="P31" t="n">
-        <v>82.93013512200093</v>
+        <v>81.2014108898193</v>
       </c>
       <c r="Q31" t="n">
         <v>42.34223702878295</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>87.74555168308848</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10367,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>101.8249850515391</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R32" t="n">
         <v>42.58424007769262</v>
@@ -10425,7 +10427,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>75.45031945264532</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>63.64706979377851</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10510,19 +10512,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
-        <v>59.95218091677091</v>
+        <v>57.82713911783087</v>
       </c>
       <c r="M34" t="n">
-        <v>59.1959110048432</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>48.1053528280334</v>
+        <v>45.9180696800844</v>
       </c>
       <c r="O34" t="n">
-        <v>69.46537080709682</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>82.93013512200093</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>42.34223702878295</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>87.74555168308848</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K35" t="n">
-        <v>68.98158147698732</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10604,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>101.8249850515391</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>42.58424007769262</v>
@@ -10662,7 +10664,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>75.45031945264532</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>63.64706979377851</v>
+        <v>61.47076291397909</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10747,19 +10749,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>59.95218091677091</v>
+        <v>57.82713911783087</v>
       </c>
       <c r="M37" t="n">
-        <v>59.1959110048432</v>
+        <v>56.955352380707</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>45.9180696800844</v>
       </c>
       <c r="O37" t="n">
-        <v>69.46537080709682</v>
+        <v>67.44506079792964</v>
       </c>
       <c r="P37" t="n">
-        <v>82.93013512200093</v>
+        <v>81.2014108898193</v>
       </c>
       <c r="Q37" t="n">
         <v>42.34223702878295</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>87.74555168308848</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10841,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>101.8249850515391</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>42.58424007769262</v>
@@ -10899,7 +10901,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>75.45031945264532</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>61.47076291397909</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -10984,19 +10986,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>59.95218091677093</v>
+        <v>57.82713911783087</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>56.955352380707</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>45.9180696800844</v>
       </c>
       <c r="O40" t="n">
-        <v>69.46537080709682</v>
+        <v>67.44506079792964</v>
       </c>
       <c r="P40" t="n">
-        <v>82.93013512200093</v>
+        <v>81.2014108898193</v>
       </c>
       <c r="Q40" t="n">
         <v>42.34223702878295</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11078,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R41" t="n">
         <v>42.58424007769262</v>
@@ -11160,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>29.49804203773589</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11221,19 +11223,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>59.95218091677091</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>45.9180696800844</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>67.44506079792964</v>
       </c>
       <c r="P43" t="n">
-        <v>82.93013512200093</v>
+        <v>81.2014108898193</v>
       </c>
       <c r="Q43" t="n">
         <v>42.34223702878295</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>87.74555168308848</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11315,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>101.8249850515391</v>
+        <v>91.29242921516942</v>
       </c>
       <c r="R44" t="n">
-        <v>42.58424007769262</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>6.561484152283033</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>75.45031945264532</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11394,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>63.64706979377851</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.49804203773589</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>59.95218091677091</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -11467,13 +11469,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>69.46537080709682</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>82.93013512200093</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22559,16 +22561,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G2" t="n">
-        <v>417.9658102901039</v>
+        <v>418.0934080885264</v>
       </c>
       <c r="H2" t="n">
-        <v>338.0873143883533</v>
+        <v>339.3940753414475</v>
       </c>
       <c r="I2" t="n">
-        <v>207.3780072822006</v>
+        <v>212.2972214058836</v>
       </c>
       <c r="J2" t="n">
-        <v>2.740927585712328</v>
+        <v>13.57063122957307</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22577,10 +22579,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>56.42683163149823</v>
+        <v>78.8318885537511</v>
       </c>
       <c r="N2" t="n">
-        <v>51.65417350500871</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -22589,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.285509237068567</v>
       </c>
       <c r="R2" t="n">
-        <v>140.0829936531375</v>
+        <v>148.0982088582942</v>
       </c>
       <c r="S2" t="n">
-        <v>207.6380301578382</v>
+        <v>210.5456649893907</v>
       </c>
       <c r="T2" t="n">
-        <v>218.6471138007553</v>
+        <v>219.2056731633497</v>
       </c>
       <c r="U2" t="n">
-        <v>250.0807524788462</v>
+        <v>250.09096030272</v>
       </c>
       <c r="V2" t="n">
         <v>320.879783609152</v>
@@ -22638,49 +22640,49 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G3" t="n">
-        <v>148.2778492956328</v>
+        <v>148.3461201365529</v>
       </c>
       <c r="H3" t="n">
-        <v>121.2276521991739</v>
+        <v>121.887004794376</v>
       </c>
       <c r="I3" t="n">
-        <v>91.29311141809657</v>
+        <v>93.64366449363538</v>
       </c>
       <c r="J3" t="n">
-        <v>8.377041828155711</v>
+        <v>14.8271391275419</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>20.44120180197424</v>
+        <v>35.26465785350914</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>17.29827403488881</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>11.13860007154486</v>
+        <v>27.38196984081287</v>
       </c>
       <c r="P3" t="n">
-        <v>32.7642952373794</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>105.7400362546942</v>
+        <v>109.9788170619971</v>
       </c>
       <c r="S3" t="n">
-        <v>182.9210185873741</v>
+        <v>184.1891195141138</v>
       </c>
       <c r="T3" t="n">
-        <v>213.0895726866503</v>
+        <v>213.3647520849204</v>
       </c>
       <c r="U3" t="n">
-        <v>237.1973619193232</v>
+        <v>237.2018534220153</v>
       </c>
       <c r="V3" t="n">
         <v>240.6489209154022</v>
@@ -22717,19 +22719,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G4" t="n">
-        <v>168.3094630644065</v>
+        <v>168.3666990440678</v>
       </c>
       <c r="H4" t="n">
-        <v>162.3452794567983</v>
+        <v>162.8541593486954</v>
       </c>
       <c r="I4" t="n">
-        <v>153.0851531410239</v>
+        <v>154.8063951475636</v>
       </c>
       <c r="J4" t="n">
-        <v>92.57385888677204</v>
+        <v>96.62044264882138</v>
       </c>
       <c r="K4" t="n">
-        <v>21.56665644925431</v>
+        <v>28.2164366317142</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>11.15120779141444</v>
+        <v>18.07363936789694</v>
       </c>
       <c r="Q4" t="n">
-        <v>94.44995352957361</v>
+        <v>99.24268633557031</v>
       </c>
       <c r="R4" t="n">
-        <v>185.8351568543492</v>
+        <v>188.4086946307534</v>
       </c>
       <c r="S4" t="n">
-        <v>228.6185458126902</v>
+        <v>229.6160128400592</v>
       </c>
       <c r="T4" t="n">
-        <v>222.0895895822268</v>
+        <v>222.3341433135066</v>
       </c>
       <c r="U4" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6383346476701</v>
       </c>
       <c r="V4" t="n">
         <v>245.1090151844499</v>
@@ -22796,16 +22798,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G5" t="n">
-        <v>417.8783123837688</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H5" t="n">
-        <v>337.191226455099</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I5" t="n">
-        <v>204.0047442482169</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22814,13 +22816,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>41.06296488573625</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N5" t="n">
-        <v>36.04170333287215</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>50.46651067918273</v>
+        <v>65.20892354519972</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -22829,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>134.5867032943157</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S5" t="n">
-        <v>205.6441716172273</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T5" t="n">
-        <v>218.2640917157734</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U5" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V5" t="n">
         <v>320.879783609152</v>
@@ -22875,22 +22877,22 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G6" t="n">
-        <v>148.2310337884838</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H6" t="n">
-        <v>120.7755129590769</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I6" t="n">
-        <v>89.68126172020311</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J6" t="n">
-        <v>3.954003058433003</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>10.27628214666007</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -22899,25 +22901,25 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P6" t="n">
-        <v>23.82458668363597</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>102.8333681880216</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S6" t="n">
-        <v>182.0514410751984</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T6" t="n">
-        <v>212.9008733398524</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U6" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V6" t="n">
         <v>240.6489209154022</v>
@@ -22954,19 +22956,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G7" t="n">
-        <v>168.2702145158476</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H7" t="n">
-        <v>161.9963241796108</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I7" t="n">
-        <v>151.9048422443612</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J7" t="n">
-        <v>89.79898650365655</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K7" t="n">
-        <v>17.00668871668184</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>6.404274245706759</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q7" t="n">
-        <v>91.16342279524457</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R7" t="n">
-        <v>184.0703993891455</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S7" t="n">
-        <v>227.9345506528043</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T7" t="n">
-        <v>221.9218912383841</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U7" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V7" t="n">
         <v>245.1090151844499</v>
@@ -23033,49 +23035,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G8" t="n">
-        <v>417.7898558879744</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H8" t="n">
-        <v>336.2853213675438</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I8" t="n">
-        <v>200.5945251941005</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>112.3155342172161</v>
       </c>
       <c r="K8" t="n">
-        <v>83.42355640483248</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>58.01940008446331</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>25.53077821856496</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>20.25818964702478</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O8" t="n">
-        <v>35.5625862733917</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P8" t="n">
-        <v>72.86822951172195</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>114.085400487321</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R8" t="n">
-        <v>129.0301979403661</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S8" t="n">
-        <v>203.6284692193107</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8768734054331</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U8" t="n">
-        <v>250.0666761266758</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V8" t="n">
         <v>320.879783609152</v>
@@ -23112,22 +23114,22 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>148.1837053907575</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H9" t="n">
-        <v>120.3184202757733</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I9" t="n">
-        <v>88.05175328971565</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K9" t="n">
-        <v>42.4537780023314</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -23136,25 +23138,25 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P9" t="n">
-        <v>14.78693852483815</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q9" t="n">
-        <v>71.40126228781628</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R9" t="n">
-        <v>99.89485591515788</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S9" t="n">
-        <v>181.1723368455023</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T9" t="n">
-        <v>212.7101066841048</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U9" t="n">
-        <v>237.1911682413709</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
@@ -23191,49 +23193,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G10" t="n">
-        <v>168.2305359770579</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H10" t="n">
-        <v>161.6435458983708</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I10" t="n">
-        <v>150.711600368756</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J10" t="n">
-        <v>86.99371381121945</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K10" t="n">
-        <v>12.39676393728799</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L10" t="n">
-        <v>67.52371566667536</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M10" t="n">
-        <v>67.17903279110968</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N10" t="n">
-        <v>55.89865382137701</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>76.66374565676749</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P10" t="n">
-        <v>1.605335336077985</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q10" t="n">
-        <v>87.84088624258442</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R10" t="n">
-        <v>182.2863079995616</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S10" t="n">
-        <v>227.2430619358953</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T10" t="n">
-        <v>221.7523556635551</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U10" t="n">
-        <v>288.6309075712877</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V10" t="n">
         <v>245.1090151844499</v>
@@ -23270,49 +23272,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H11" t="n">
-        <v>335.1225893275702</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I11" t="n">
-        <v>196.2174982714999</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>68.98158147698732</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L11" t="n">
-        <v>40.1028531396922</v>
+        <v>35.07435992029687</v>
       </c>
       <c r="M11" t="n">
-        <v>5.595167593493045</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>16.43335224433218</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R11" t="n">
-        <v>121.8984057757385</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S11" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T11" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0575933913458</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23349,19 +23351,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H12" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I12" t="n">
-        <v>85.96027407454947</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>32.64460726796537</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23376,22 +23378,22 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>96.12326613555373</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S12" t="n">
-        <v>180.0440037912057</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T12" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1871717842718</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23428,25 +23430,25 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H13" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I13" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J13" t="n">
-        <v>83.39313745375298</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K13" t="n">
-        <v>6.479910928618636</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>59.1959110048432</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.57640008743157</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R13" t="n">
-        <v>179.9964210683504</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S13" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23507,49 +23509,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H14" t="n">
-        <v>335.1225893275702</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I14" t="n">
-        <v>196.2174982714999</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>68.98158147698732</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L14" t="n">
-        <v>40.1028531396922</v>
+        <v>35.07435992029687</v>
       </c>
       <c r="M14" t="n">
-        <v>5.595167593493045</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>16.43335224433218</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P14" t="n">
-        <v>56.54187083839039</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R14" t="n">
-        <v>121.8984057757385</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S14" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T14" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0575933913458</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23586,19 +23588,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H15" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I15" t="n">
-        <v>85.96027407454947</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>32.64460726796537</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23613,22 +23615,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>63.64706979377851</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>96.12326613555373</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S15" t="n">
-        <v>180.0440037912057</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T15" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1871717842718</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23665,25 +23667,25 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H16" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I16" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J16" t="n">
-        <v>83.39313745375298</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K16" t="n">
-        <v>6.479910928618636</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L16" t="n">
-        <v>59.95218091677091</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>59.1959110048432</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>83.57640008743157</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R16" t="n">
-        <v>179.9964210683504</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S16" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23744,49 +23746,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H17" t="n">
-        <v>335.1225893275702</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I17" t="n">
-        <v>196.2174982714999</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>68.98158147698732</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L17" t="n">
-        <v>40.1028531396922</v>
+        <v>35.07435992029687</v>
       </c>
       <c r="M17" t="n">
-        <v>5.595167593493045</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>16.43335224433218</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P17" t="n">
-        <v>56.54187083839039</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>121.8984057757385</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S17" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T17" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0575933913458</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23823,19 +23825,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H18" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I18" t="n">
-        <v>85.96027407454947</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>32.64460726796537</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23850,22 +23852,22 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>63.64706979377851</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R18" t="n">
-        <v>96.12326613555373</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S18" t="n">
-        <v>180.0440037912057</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T18" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1871717842718</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23902,49 +23904,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H19" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I19" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J19" t="n">
-        <v>83.39313745375298</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K19" t="n">
-        <v>6.479910928618636</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L19" t="n">
-        <v>59.95218091677091</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>59.1959110048432</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>48.1053528280334</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>83.57640008743157</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R19" t="n">
-        <v>179.9964210683504</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S19" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23981,49 +23983,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H20" t="n">
-        <v>335.1225893275702</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I20" t="n">
-        <v>196.2174982714999</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J20" t="n">
-        <v>87.74555168308848</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>68.98158147698732</v>
+        <v>64.92826845728513</v>
       </c>
       <c r="L20" t="n">
-        <v>40.1028531396922</v>
+        <v>35.0743599202969</v>
       </c>
       <c r="M20" t="n">
-        <v>5.595167593493045</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>16.43335224433218</v>
+        <v>11.06450388845946</v>
       </c>
       <c r="P20" t="n">
-        <v>56.54187083839039</v>
+        <v>51.95968297934968</v>
       </c>
       <c r="Q20" t="n">
-        <v>101.8249850515391</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>121.8984057757385</v>
+        <v>119.8967829935967</v>
       </c>
       <c r="S20" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T20" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0575933913458</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24060,19 +24062,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H21" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I21" t="n">
-        <v>85.96027407454947</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J21" t="n">
-        <v>75.45031945264532</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>32.64460726796537</v>
+        <v>29.89154616318336</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24087,22 +24089,22 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>96.12326613555373</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S21" t="n">
-        <v>180.0440037912057</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T21" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1871717842718</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24139,49 +24141,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H22" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I22" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J22" t="n">
-        <v>83.39313745375298</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K22" t="n">
-        <v>6.479910928618636</v>
+        <v>4.819275353807953</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>59.1959110048432</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>48.1053528280334</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>69.46537080709682</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>83.57640008743157</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R22" t="n">
-        <v>179.9964210683504</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S22" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24218,49 +24220,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H23" t="n">
-        <v>335.1225893275702</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I23" t="n">
-        <v>196.2174982714999</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J23" t="n">
-        <v>87.74555168308848</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K23" t="n">
-        <v>68.98158147698732</v>
+        <v>64.92826845728513</v>
       </c>
       <c r="L23" t="n">
-        <v>40.1028531396922</v>
+        <v>35.0743599202969</v>
       </c>
       <c r="M23" t="n">
-        <v>5.595167593493045</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>16.43335224433218</v>
+        <v>11.06450388845946</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>51.95968297934968</v>
       </c>
       <c r="Q23" t="n">
-        <v>101.8249850515391</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R23" t="n">
-        <v>121.8984057757385</v>
+        <v>162.4810230712893</v>
       </c>
       <c r="S23" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T23" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0575933913458</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24297,13 +24299,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H24" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I24" t="n">
-        <v>85.96027407454947</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24324,22 +24326,22 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>63.64706979377851</v>
+        <v>61.47076291397909</v>
       </c>
       <c r="R24" t="n">
-        <v>96.12326613555373</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S24" t="n">
-        <v>180.0440037912057</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T24" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1871717842718</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24376,49 +24378,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H25" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I25" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J25" t="n">
-        <v>83.39313745375298</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K25" t="n">
-        <v>6.479910928618636</v>
+        <v>4.819275353807953</v>
       </c>
       <c r="L25" t="n">
-        <v>59.95218091677091</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>59.1959110048432</v>
+        <v>56.955352380707</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>45.9180696800844</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>67.44506079792964</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>83.57640008743157</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R25" t="n">
-        <v>179.9964210683504</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S25" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24455,49 +24457,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H26" t="n">
-        <v>335.1225893275702</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I26" t="n">
-        <v>196.2174982714999</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>68.98158147698732</v>
+        <v>64.92826845728513</v>
       </c>
       <c r="L26" t="n">
-        <v>40.1028531396922</v>
+        <v>35.0743599202969</v>
       </c>
       <c r="M26" t="n">
-        <v>5.595167593493045</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>16.43335224433218</v>
+        <v>11.06450388845946</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>51.95968297934968</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R26" t="n">
-        <v>121.8984057757385</v>
+        <v>119.8967829935967</v>
       </c>
       <c r="S26" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T26" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0575933913458</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24534,19 +24536,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H27" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I27" t="n">
-        <v>85.96027407454947</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>32.64460726796537</v>
+        <v>29.89154616318336</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24561,22 +24563,22 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>96.12326613555373</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S27" t="n">
-        <v>180.0440037912057</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T27" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1871717842718</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24613,28 +24615,28 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H28" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I28" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J28" t="n">
-        <v>83.39313745375298</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K28" t="n">
-        <v>6.479910928618636</v>
+        <v>4.819275353807953</v>
       </c>
       <c r="L28" t="n">
-        <v>59.95218091677091</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>59.1959110048432</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>48.1053528280334</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.57640008743157</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R28" t="n">
-        <v>179.9964210683504</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S28" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24692,49 +24694,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H29" t="n">
-        <v>335.1225893275702</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I29" t="n">
-        <v>196.2174982714999</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>68.98158147698732</v>
+        <v>64.92826845728513</v>
       </c>
       <c r="L29" t="n">
-        <v>40.1028531396922</v>
+        <v>35.0743599202969</v>
       </c>
       <c r="M29" t="n">
-        <v>5.595167593493045</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>16.43335224433218</v>
+        <v>11.06450388845946</v>
       </c>
       <c r="P29" t="n">
-        <v>56.54187083839039</v>
+        <v>51.95968297934968</v>
       </c>
       <c r="Q29" t="n">
-        <v>101.8249850515391</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>121.8984057757385</v>
+        <v>119.8967829935967</v>
       </c>
       <c r="S29" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T29" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0575933913458</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24771,19 +24773,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H30" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I30" t="n">
-        <v>85.96027407454947</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>32.64460726796537</v>
+        <v>29.89154616318336</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24798,22 +24800,22 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>63.64706979377851</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>96.12326613555373</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S30" t="n">
-        <v>180.0440037912057</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T30" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1871717842718</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24850,49 +24852,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H31" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I31" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J31" t="n">
-        <v>83.39313745375298</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K31" t="n">
-        <v>6.479910928618636</v>
+        <v>4.819275353807953</v>
       </c>
       <c r="L31" t="n">
-        <v>59.95218091677091</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>59.1959110048432</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>48.1053528280334</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>69.46537080709682</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.57640008743157</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R31" t="n">
-        <v>179.9964210683504</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S31" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24929,49 +24931,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H32" t="n">
-        <v>335.1225893275702</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I32" t="n">
-        <v>196.2174982714999</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>68.98158147698732</v>
+        <v>64.92826845728513</v>
       </c>
       <c r="L32" t="n">
-        <v>40.1028531396922</v>
+        <v>35.0743599202969</v>
       </c>
       <c r="M32" t="n">
-        <v>5.595167593493045</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>16.43335224433218</v>
+        <v>11.06450388845946</v>
       </c>
       <c r="P32" t="n">
-        <v>56.54187083839039</v>
+        <v>51.95968297934968</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>121.8984057757385</v>
+        <v>119.8967829935967</v>
       </c>
       <c r="S32" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T32" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0575933913458</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -25008,19 +25010,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H33" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I33" t="n">
-        <v>85.96027407454947</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>32.64460726796537</v>
+        <v>29.89154616318336</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25035,22 +25037,22 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>61.47076291397909</v>
       </c>
       <c r="R33" t="n">
-        <v>96.12326613555373</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S33" t="n">
-        <v>180.0440037912057</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T33" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1871717842718</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25087,49 +25089,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H34" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I34" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J34" t="n">
-        <v>83.39313745375298</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K34" t="n">
-        <v>6.479910928618636</v>
+        <v>4.819275353807953</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>56.955352380707</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>67.44506079792964</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>81.2014108898193</v>
       </c>
       <c r="Q34" t="n">
-        <v>83.57640008743157</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R34" t="n">
-        <v>179.9964210683504</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S34" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25166,49 +25168,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H35" t="n">
-        <v>335.1225893275702</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I35" t="n">
-        <v>196.2174982714999</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>64.92826845728513</v>
       </c>
       <c r="L35" t="n">
-        <v>40.1028531396922</v>
+        <v>35.0743599202969</v>
       </c>
       <c r="M35" t="n">
-        <v>5.595167593493045</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>16.43335224433218</v>
+        <v>11.06450388845946</v>
       </c>
       <c r="P35" t="n">
-        <v>56.54187083839039</v>
+        <v>51.95968297934968</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R35" t="n">
-        <v>121.8984057757385</v>
+        <v>119.8967829935967</v>
       </c>
       <c r="S35" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T35" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0575933913458</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25245,19 +25247,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H36" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I36" t="n">
-        <v>85.96027407454947</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>32.64460726796537</v>
+        <v>29.89154616318336</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25272,22 +25274,22 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>96.12326613555373</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S36" t="n">
-        <v>180.0440037912057</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T36" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1871717842718</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -25324,19 +25326,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H37" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I37" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J37" t="n">
-        <v>83.39313745375298</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K37" t="n">
-        <v>6.479910928618636</v>
+        <v>4.819275353807953</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25345,7 +25347,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>48.1053528280334</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>83.57640008743157</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R37" t="n">
-        <v>179.9964210683504</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S37" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25403,49 +25405,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H38" t="n">
-        <v>335.1225893275702</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I38" t="n">
-        <v>196.2174982714999</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K38" t="n">
-        <v>68.98158147698734</v>
+        <v>64.92826845728513</v>
       </c>
       <c r="L38" t="n">
-        <v>40.1028531396922</v>
+        <v>35.0743599202969</v>
       </c>
       <c r="M38" t="n">
-        <v>5.595167593493045</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>16.43335224433224</v>
+        <v>11.06450388845946</v>
       </c>
       <c r="P38" t="n">
-        <v>56.54187083839042</v>
+        <v>51.95968297934968</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R38" t="n">
-        <v>121.8984057757385</v>
+        <v>119.8967829935967</v>
       </c>
       <c r="S38" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T38" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0575933913458</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25482,19 +25484,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H39" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I39" t="n">
-        <v>85.96027407454947</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>32.64460726796537</v>
+        <v>29.89154616318336</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25509,22 +25511,22 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>63.64706979377851</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>96.12326613555375</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S39" t="n">
-        <v>180.0440037912057</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T39" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1871717842718</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25561,28 +25563,28 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H40" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I40" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J40" t="n">
-        <v>83.39313745375298</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K40" t="n">
-        <v>6.479910928618636</v>
+        <v>4.819275353807953</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>59.1959110048432</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>48.1053528280334</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>83.57640008743158</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R40" t="n">
-        <v>179.9964210683504</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S40" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25640,49 +25642,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H41" t="n">
-        <v>335.1225893275702</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I41" t="n">
-        <v>196.2174982714999</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J41" t="n">
-        <v>87.74555168308848</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>68.98158147698732</v>
+        <v>64.92826845728513</v>
       </c>
       <c r="L41" t="n">
-        <v>40.1028531396922</v>
+        <v>35.0743599202969</v>
       </c>
       <c r="M41" t="n">
-        <v>5.595167593493045</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>16.43335224433218</v>
+        <v>11.06450388845946</v>
       </c>
       <c r="P41" t="n">
-        <v>56.54187083839039</v>
+        <v>51.95968297934968</v>
       </c>
       <c r="Q41" t="n">
-        <v>101.8249850515391</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>121.8984057757385</v>
+        <v>119.8967829935967</v>
       </c>
       <c r="S41" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T41" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0575933913458</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25719,19 +25721,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H42" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I42" t="n">
-        <v>92.5217582268325</v>
+        <v>91.93475956663372</v>
       </c>
       <c r="J42" t="n">
-        <v>75.45031945264532</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K42" t="n">
-        <v>32.64460726796537</v>
+        <v>29.89154616318336</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25746,22 +25748,22 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>63.64706979377851</v>
+        <v>61.47076291397909</v>
       </c>
       <c r="R42" t="n">
-        <v>96.12326613555373</v>
+        <v>124.5627663855477</v>
       </c>
       <c r="S42" t="n">
-        <v>180.0440037912057</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T42" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1871717842718</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25798,49 +25800,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H43" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I43" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J43" t="n">
-        <v>83.39313745375298</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K43" t="n">
-        <v>6.479910928618636</v>
+        <v>4.819275353807953</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>57.82713911783087</v>
       </c>
       <c r="M43" t="n">
-        <v>59.1959110048432</v>
+        <v>56.955352380707</v>
       </c>
       <c r="N43" t="n">
-        <v>48.1053528280334</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>69.46537080709682</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>83.57640008743157</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R43" t="n">
-        <v>179.9964210683504</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S43" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25877,49 +25879,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.6763216963499</v>
+        <v>417.5787878714249</v>
       </c>
       <c r="H44" t="n">
-        <v>335.1225893275702</v>
+        <v>334.1237210430571</v>
       </c>
       <c r="I44" t="n">
-        <v>196.2174982714999</v>
+        <v>192.4573254860788</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>79.46749020986022</v>
       </c>
       <c r="K44" t="n">
-        <v>68.98158147698732</v>
+        <v>56.57491319468377</v>
       </c>
       <c r="L44" t="n">
-        <v>40.1028531396922</v>
+        <v>24.71128406284015</v>
       </c>
       <c r="M44" t="n">
-        <v>5.595167593493045</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>16.43335224433218</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>56.54187083839039</v>
+        <v>42.51638489689415</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>121.8984057757385</v>
+        <v>158.355936723486</v>
       </c>
       <c r="S44" t="n">
-        <v>201.0413088276692</v>
+        <v>198.8187567921908</v>
       </c>
       <c r="T44" t="n">
-        <v>217.3798774815972</v>
+        <v>216.952923162988</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0575933913458</v>
+        <v>250.0497906853519</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25956,19 +25958,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.1229592428521</v>
+        <v>148.0707740458651</v>
       </c>
       <c r="H45" t="n">
-        <v>119.7317403736337</v>
+        <v>119.227741234312</v>
       </c>
       <c r="I45" t="n">
-        <v>85.96027407454947</v>
+        <v>90.72503104986799</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>70.51996274958896</v>
       </c>
       <c r="K45" t="n">
-        <v>32.64460726796537</v>
+        <v>24.21784236678039</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25983,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>56.98567517487726</v>
       </c>
       <c r="R45" t="n">
-        <v>96.12326613555373</v>
+        <v>122.3812483112375</v>
       </c>
       <c r="S45" t="n">
-        <v>180.0440037912057</v>
+        <v>179.0746866454165</v>
       </c>
       <c r="T45" t="n">
-        <v>212.4652570791701</v>
+        <v>212.2549141141216</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1871717842718</v>
+        <v>237.183738547628</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26035,49 +26037,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1358581311098</v>
       </c>
       <c r="H46" t="n">
-        <v>161.1907538606181</v>
+        <v>160.8017737771232</v>
       </c>
       <c r="I46" t="n">
-        <v>149.1800706541489</v>
+        <v>147.8643793287897</v>
       </c>
       <c r="J46" t="n">
-        <v>83.39313745375298</v>
+        <v>102.0962744798141</v>
       </c>
       <c r="K46" t="n">
-        <v>6.479910928618636</v>
+        <v>70.56688024483543</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>53.44770209726541</v>
       </c>
       <c r="M46" t="n">
-        <v>59.1959110048432</v>
+        <v>52.33785008490108</v>
       </c>
       <c r="N46" t="n">
-        <v>48.1053528280334</v>
+        <v>41.41036126824764</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>63.28146248584993</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>77.63873325000013</v>
       </c>
       <c r="Q46" t="n">
-        <v>83.57640008743157</v>
+        <v>122.2551447347503</v>
       </c>
       <c r="R46" t="n">
-        <v>179.9964210683504</v>
+        <v>178.0292477626592</v>
       </c>
       <c r="S46" t="n">
-        <v>226.3555339845949</v>
+        <v>225.5930852933272</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5347562180094</v>
+        <v>221.3478230490496</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6257433251451</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>416502.1025375124</v>
+        <v>416922.8895080395</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>416341.4472454463</v>
+        <v>417045.0365635273</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358814.6943717592</v>
+        <v>364927.9852137773</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>412866.3820661718</v>
+        <v>397640.4284356642</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>397749.4952811813</v>
+        <v>397640.4284356642</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>395729.0704624039</v>
+        <v>403951.4898988756</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>368046.5395951888</v>
+        <v>411345.313060606</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>381640.8319811185</v>
+        <v>370365.6682109266</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>408327.9656488901</v>
+        <v>397640.4284356642</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>378627.3044708265</v>
+        <v>411345.313060606</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>407476.3277205874</v>
+        <v>398148.9058415136</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>415065.0372015544</v>
+        <v>397640.4284356642</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>398247.0620609083</v>
+        <v>385794.2070167245</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>362837.0648923911</v>
+        <v>393808.8063366421</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>402969.6746396067</v>
+        <v>370715.9996802894</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73818.58336138216</v>
+        <v>73079.20110371358</v>
       </c>
       <c r="C2" t="n">
-        <v>74323.96425956802</v>
+        <v>73903.90156547022</v>
       </c>
       <c r="D2" t="n">
-        <v>65799.85330796283</v>
+        <v>65714.07921050953</v>
       </c>
       <c r="E2" t="n">
-        <v>74931.56312699782</v>
+        <v>72698.25640282015</v>
       </c>
       <c r="F2" t="n">
-        <v>72556.05234649933</v>
+        <v>72698.25640282015</v>
       </c>
       <c r="G2" t="n">
-        <v>72238.5570178343</v>
+        <v>73689.99463275338</v>
       </c>
       <c r="H2" t="n">
-        <v>67888.44502441476</v>
+        <v>74851.88112959672</v>
       </c>
       <c r="I2" t="n">
-        <v>70024.69097077518</v>
+        <v>68412.22265321855</v>
       </c>
       <c r="J2" t="n">
-        <v>74218.38340428213</v>
+        <v>72698.25640282015</v>
       </c>
       <c r="K2" t="n">
-        <v>69551.13664772928</v>
+        <v>74851.88112959673</v>
       </c>
       <c r="L2" t="n">
-        <v>74084.55458697742</v>
+        <v>72778.15999516792</v>
       </c>
       <c r="M2" t="n">
-        <v>75277.06607684365</v>
+        <v>72698.25640282016</v>
       </c>
       <c r="N2" t="n">
-        <v>72634.241411885</v>
+        <v>70836.70732270107</v>
       </c>
       <c r="O2" t="n">
-        <v>67069.81328540368</v>
+        <v>72096.14435868811</v>
       </c>
       <c r="P2" t="n">
-        <v>73376.36624568044</v>
+        <v>68743.96088902478</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306594.2889031769</v>
+        <v>276009.2581920185</v>
       </c>
       <c r="C3" t="n">
-        <v>19819.34741550648</v>
+        <v>28902.46409672997</v>
       </c>
       <c r="D3" t="n">
-        <v>18844.15112059535</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22689.41040071701</v>
+        <v>64221.33560780271</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>10872.30883199171</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20566.0645082806</v>
+        <v>24952.62904266647</v>
       </c>
       <c r="C4" t="n">
-        <v>17694.72985321767</v>
+        <v>20651.38271236866</v>
       </c>
       <c r="D4" t="n">
-        <v>5888.208447231089</v>
+        <v>12461.56035740795</v>
       </c>
       <c r="E4" t="n">
-        <v>10960.72529409253</v>
+        <v>7713.416820537888</v>
       </c>
       <c r="F4" t="n">
-        <v>8585.214513594019</v>
+        <v>7713.416820537888</v>
       </c>
       <c r="G4" t="n">
-        <v>8267.719184928999</v>
+        <v>8705.15505047113</v>
       </c>
       <c r="H4" t="n">
-        <v>3917.607191509464</v>
+        <v>9867.04154731446</v>
       </c>
       <c r="I4" t="n">
-        <v>6053.853137869864</v>
+        <v>3427.38307093628</v>
       </c>
       <c r="J4" t="n">
-        <v>10247.54557137682</v>
+        <v>7713.416820537889</v>
       </c>
       <c r="K4" t="n">
-        <v>5580.298814823969</v>
+        <v>9867.04154731446</v>
       </c>
       <c r="L4" t="n">
-        <v>10113.71675407213</v>
+        <v>7793.320412885656</v>
       </c>
       <c r="M4" t="n">
-        <v>11306.22824393836</v>
+        <v>7713.416820537889</v>
       </c>
       <c r="N4" t="n">
-        <v>8663.403578979687</v>
+        <v>5851.867740418808</v>
       </c>
       <c r="O4" t="n">
-        <v>3098.975452498386</v>
+        <v>7111.304776405845</v>
       </c>
       <c r="P4" t="n">
-        <v>9405.528412775144</v>
+        <v>1998.391275520059</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>39871.80989399894</v>
+      </c>
+      <c r="C5" t="n">
         <v>40563.74085539449</v>
       </c>
-      <c r="C5" t="n">
-        <v>41038.22012697312</v>
-      </c>
       <c r="D5" t="n">
-        <v>41517.8975895426</v>
+        <v>40563.74085539449</v>
       </c>
       <c r="E5" t="n">
-        <v>8505.965127173942</v>
+        <v>8678.759586280614</v>
       </c>
       <c r="F5" t="n">
-        <v>8505.965127173942</v>
+        <v>8678.759586280614</v>
       </c>
       <c r="G5" t="n">
-        <v>8505.965127173942</v>
+        <v>8678.759586280614</v>
       </c>
       <c r="H5" t="n">
-        <v>8505.965127173942</v>
+        <v>8678.759586280612</v>
       </c>
       <c r="I5" t="n">
-        <v>8505.965127173942</v>
+        <v>8678.759586280612</v>
       </c>
       <c r="J5" t="n">
-        <v>8505.965127173942</v>
+        <v>8678.759586280612</v>
       </c>
       <c r="K5" t="n">
-        <v>8505.965127173942</v>
+        <v>8678.759586280612</v>
       </c>
       <c r="L5" t="n">
-        <v>8505.965127173942</v>
+        <v>8678.759586280612</v>
       </c>
       <c r="M5" t="n">
-        <v>8505.965127173942</v>
+        <v>8678.759586280612</v>
       </c>
       <c r="N5" t="n">
-        <v>8505.965127173942</v>
+        <v>8678.759586280612</v>
       </c>
       <c r="O5" t="n">
-        <v>8505.965127173942</v>
+        <v>8678.759586280612</v>
       </c>
       <c r="P5" t="n">
-        <v>8505.965127173942</v>
+        <v>9034.86667628599</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-293905.5109054698</v>
+        <v>-267754.4960249703</v>
       </c>
       <c r="C6" t="n">
-        <v>-4228.333136129251</v>
+        <v>-16213.6860990229</v>
       </c>
       <c r="D6" t="n">
-        <v>-450.4038494062188</v>
+        <v>12688.7779977071</v>
       </c>
       <c r="E6" t="n">
-        <v>32775.46230501433</v>
+        <v>-7915.255611801054</v>
       </c>
       <c r="F6" t="n">
-        <v>55464.87270573137</v>
+        <v>56306.07999600164</v>
       </c>
       <c r="G6" t="n">
-        <v>55464.87270573137</v>
+        <v>56306.07999600164</v>
       </c>
       <c r="H6" t="n">
-        <v>55464.87270573135</v>
+        <v>56306.07999600164</v>
       </c>
       <c r="I6" t="n">
-        <v>55464.87270573137</v>
+        <v>56306.07999600165</v>
       </c>
       <c r="J6" t="n">
-        <v>55464.87270573136</v>
+        <v>56306.07999600164</v>
       </c>
       <c r="K6" t="n">
-        <v>55464.87270573137</v>
+        <v>56306.07999600166</v>
       </c>
       <c r="L6" t="n">
-        <v>55464.87270573135</v>
+        <v>56306.07999600166</v>
       </c>
       <c r="M6" t="n">
-        <v>55464.87270573134</v>
+        <v>56306.07999600166</v>
       </c>
       <c r="N6" t="n">
-        <v>55464.87270573137</v>
+        <v>56306.07999600165</v>
       </c>
       <c r="O6" t="n">
-        <v>55464.87270573135</v>
+        <v>56306.07999600165</v>
       </c>
       <c r="P6" t="n">
-        <v>55464.87270573136</v>
+        <v>46838.39410522702</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>286.431646513713</v>
+      </c>
+      <c r="C3" t="n">
         <v>318.1715988713071</v>
       </c>
-      <c r="C3" t="n">
-        <v>339.9367030721617</v>
-      </c>
       <c r="D3" t="n">
-        <v>361.9402564010368</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="E3" t="n">
-        <v>390.181886567612</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="F3" t="n">
-        <v>390.181886567612</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="G3" t="n">
-        <v>390.181886567612</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="H3" t="n">
-        <v>390.181886567612</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="I3" t="n">
-        <v>390.181886567612</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="J3" t="n">
-        <v>390.181886567612</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="K3" t="n">
-        <v>390.181886567612</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="L3" t="n">
-        <v>390.181886567612</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="M3" t="n">
-        <v>390.181886567612</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="N3" t="n">
-        <v>390.181886567612</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="O3" t="n">
-        <v>390.181886567612</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="P3" t="n">
-        <v>390.181886567612</v>
+        <v>414.443425517706</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>318.1715988713071</v>
+        <v>286.431646513713</v>
       </c>
       <c r="C3" t="n">
-        <v>21.76510420085447</v>
+        <v>31.73995235759418</v>
       </c>
       <c r="D3" t="n">
-        <v>22.00355332887523</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>28.24163016657519</v>
+        <v>79.93663903147325</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>16.33518761492559</v>
       </c>
     </row>
     <row r="4">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.279081804507766</v>
+        <v>1.151484006085277</v>
       </c>
       <c r="H2" t="n">
-        <v>13.09939653041517</v>
+        <v>11.79263557732085</v>
       </c>
       <c r="I2" t="n">
-        <v>49.31180126828571</v>
+        <v>44.3925871446027</v>
       </c>
       <c r="J2" t="n">
-        <v>108.5604693053411</v>
+        <v>97.7307656614804</v>
       </c>
       <c r="K2" t="n">
-        <v>162.7040020901549</v>
+        <v>146.4730836390702</v>
       </c>
       <c r="L2" t="n">
-        <v>201.8487018648595</v>
+        <v>181.7128122903026</v>
       </c>
       <c r="M2" t="n">
-        <v>224.5955729057745</v>
+        <v>202.1905159835216</v>
       </c>
       <c r="N2" t="n">
-        <v>228.2297640828322</v>
+        <v>205.4621699158114</v>
       </c>
       <c r="O2" t="n">
-        <v>215.5108943892581</v>
+        <v>194.0121008303009</v>
       </c>
       <c r="P2" t="n">
-        <v>183.9335623404725</v>
+        <v>165.5848394300706</v>
       </c>
       <c r="Q2" t="n">
-        <v>138.1264452165381</v>
+        <v>124.3473184621416</v>
       </c>
       <c r="R2" t="n">
-        <v>80.34712240241105</v>
+        <v>72.33190719725437</v>
       </c>
       <c r="S2" t="n">
-        <v>29.14707662022075</v>
+        <v>26.23944178866829</v>
       </c>
       <c r="T2" t="n">
-        <v>5.599180599232749</v>
+        <v>5.040621236638304</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.09211872048682217</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6843690994590379</v>
+        <v>0.6160982585389299</v>
       </c>
       <c r="H3" t="n">
-        <v>6.609564723722816</v>
+        <v>5.950212128520717</v>
       </c>
       <c r="I3" t="n">
-        <v>23.56270802962039</v>
+        <v>21.21215495408158</v>
       </c>
       <c r="J3" t="n">
-        <v>64.65787180459272</v>
+        <v>58.20777450520653</v>
       </c>
       <c r="K3" t="n">
-        <v>110.5106014683483</v>
+        <v>99.48635782731483</v>
       </c>
       <c r="L3" t="n">
-        <v>148.5951415294723</v>
+        <v>133.7716854779374</v>
       </c>
       <c r="M3" t="n">
-        <v>173.4035213848624</v>
+        <v>156.1052473499736</v>
       </c>
       <c r="N3" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O3" t="n">
-        <v>162.8288181506773</v>
+        <v>146.5854483814093</v>
       </c>
       <c r="P3" t="n">
-        <v>130.6844818081035</v>
+        <v>117.6477455274909</v>
       </c>
       <c r="Q3" t="n">
-        <v>87.35911522217475</v>
+        <v>78.6444022654255</v>
       </c>
       <c r="R3" t="n">
-        <v>42.4909165436059</v>
+        <v>38.25213573630304</v>
       </c>
       <c r="S3" t="n">
-        <v>12.7118558605659</v>
+        <v>11.44375493382617</v>
       </c>
       <c r="T3" t="n">
-        <v>2.758487729837086</v>
+        <v>2.483308331567001</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.04053278016703487</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5737520635384226</v>
+        <v>0.5165160838771873</v>
       </c>
       <c r="H4" t="n">
-        <v>5.101177437641615</v>
+        <v>4.59229754574445</v>
       </c>
       <c r="I4" t="n">
-        <v>17.25428932895548</v>
+        <v>15.53304732241578</v>
       </c>
       <c r="J4" t="n">
-        <v>40.56427089216648</v>
+        <v>36.51768713011714</v>
       </c>
       <c r="K4" t="n">
-        <v>66.65955792746399</v>
+        <v>60.00977774500411</v>
       </c>
       <c r="L4" t="n">
-        <v>85.3012840646124</v>
+        <v>76.79185487025019</v>
       </c>
       <c r="M4" t="n">
-        <v>89.9382439235729</v>
+        <v>80.96624394813034</v>
       </c>
       <c r="N4" t="n">
-        <v>87.79971350492977</v>
+        <v>79.04104763549726</v>
       </c>
       <c r="O4" t="n">
-        <v>81.09724621723089</v>
+        <v>73.00720065565919</v>
       </c>
       <c r="P4" t="n">
-        <v>69.39270412104702</v>
+        <v>62.47027254456452</v>
       </c>
       <c r="Q4" t="n">
-        <v>48.04391142956737</v>
+        <v>43.25117862357066</v>
       </c>
       <c r="R4" t="n">
-        <v>25.79797914782761</v>
+        <v>23.22444137142334</v>
       </c>
       <c r="S4" t="n">
-        <v>9.998933689119598</v>
+        <v>9.001466661750616</v>
       </c>
       <c r="T4" t="n">
-        <v>2.451486089664169</v>
+        <v>2.206932358384345</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.02817360457511934</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.36657971084286</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H5" t="n">
-        <v>13.99548446366944</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I5" t="n">
-        <v>52.68506430226941</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J5" t="n">
-        <v>115.9867447331493</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K5" t="n">
-        <v>173.8340638931276</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L5" t="n">
-        <v>215.6565277188348</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M5" t="n">
-        <v>239.9594396515365</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N5" t="n">
-        <v>243.8422342549688</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O5" t="n">
-        <v>230.2533072552751</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P5" t="n">
-        <v>196.5158706438419</v>
+        <v>183.9335623404725</v>
       </c>
       <c r="Q5" t="n">
-        <v>147.575234749282</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R5" t="n">
-        <v>85.84341276123287</v>
+        <v>80.34712240241105</v>
       </c>
       <c r="S5" t="n">
-        <v>31.1409351608317</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T5" t="n">
-        <v>5.982202684214622</v>
+        <v>5.599180599232749</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7311846066080457</v>
+        <v>0.6843690994590379</v>
       </c>
       <c r="H6" t="n">
-        <v>7.061703963819812</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I6" t="n">
-        <v>25.17455772751386</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J6" t="n">
-        <v>69.08091057431542</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K6" t="n">
-        <v>118.0702792170545</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L6" t="n">
-        <v>158.7600611847865</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M6" t="n">
         <v>173.4035213848624</v>
@@ -31379,25 +31381,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O6" t="n">
-        <v>173.9674182222222</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P6" t="n">
-        <v>139.6241903618469</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q6" t="n">
-        <v>93.33507364351127</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R6" t="n">
-        <v>45.39758461027851</v>
+        <v>42.4909165436059</v>
       </c>
       <c r="S6" t="n">
-        <v>13.58143337274154</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T6" t="n">
-        <v>2.947187076635061</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.5737520635384226</v>
       </c>
       <c r="H7" t="n">
-        <v>5.450132714829087</v>
+        <v>5.101177437641615</v>
       </c>
       <c r="I7" t="n">
-        <v>18.43460022561821</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J7" t="n">
-        <v>43.33914327528198</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K7" t="n">
-        <v>71.21952566003647</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L7" t="n">
-        <v>91.13647282036283</v>
+        <v>85.3012840646124</v>
       </c>
       <c r="M7" t="n">
-        <v>96.09063231267676</v>
+        <v>89.9382439235729</v>
       </c>
       <c r="N7" t="n">
-        <v>93.80581184940493</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O7" t="n">
-        <v>86.6448501535405</v>
+        <v>81.09724621723089</v>
       </c>
       <c r="P7" t="n">
-        <v>74.13963766675469</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q7" t="n">
-        <v>51.33044216389641</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R7" t="n">
-        <v>27.56273661303132</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S7" t="n">
-        <v>10.68292884900547</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T7" t="n">
-        <v>2.619184433506818</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.455036206637333</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H8" t="n">
-        <v>14.90138955122459</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I8" t="n">
-        <v>56.09528335638583</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J8" t="n">
-        <v>123.4943792430854</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K8" t="n">
-        <v>185.0860618700438</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L8" t="n">
-        <v>229.6156261789211</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M8" t="n">
-        <v>255.4916263187078</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N8" t="n">
-        <v>259.6257479408162</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O8" t="n">
-        <v>245.1572316610661</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P8" t="n">
-        <v>209.2360253097069</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q8" t="n">
-        <v>157.1275411595074</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R8" t="n">
-        <v>91.39991811518244</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S8" t="n">
-        <v>33.15663755874826</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T8" t="n">
-        <v>6.369420994554928</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1164028965309866</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7785130043343056</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H9" t="n">
-        <v>7.518796647123428</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I9" t="n">
-        <v>26.80406615800132</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J9" t="n">
-        <v>73.55240625598807</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K9" t="n">
-        <v>125.7127775463865</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M9" t="n">
         <v>173.4035213848624</v>
@@ -31616,25 +31618,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
-        <v>173.9674182222222</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P9" t="n">
-        <v>148.6618385206447</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q9" t="n">
-        <v>99.37650209712999</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R9" t="n">
-        <v>48.33609688314225</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S9" t="n">
-        <v>14.46053760243764</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T9" t="n">
-        <v>3.137953732382573</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0512179608114675</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6526791508871155</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H10" t="n">
-        <v>5.802910996069087</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I10" t="n">
-        <v>19.62784210122345</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J10" t="n">
-        <v>46.14441596771907</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K10" t="n">
-        <v>75.82945043943032</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L10" t="n">
-        <v>97.03558939643536</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3104236249685</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N10" t="n">
-        <v>99.87771042620749</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O10" t="n">
-        <v>92.2532312544807</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P10" t="n">
-        <v>78.93857657638347</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.65297871655656</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R10" t="n">
-        <v>29.34682800261521</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S10" t="n">
-        <v>11.37441756591454</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T10" t="n">
-        <v>2.788720008335857</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03560068095747907</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.568570398261756</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H11" t="n">
-        <v>16.06412159119821</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I11" t="n">
-        <v>60.4723102789864</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J11" t="n">
-        <v>133.1304518394688</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K11" t="n">
-        <v>199.528036797889</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L11" t="n">
-        <v>247.5321731236922</v>
+        <v>252.5606663430875</v>
       </c>
       <c r="M11" t="n">
-        <v>275.4272369437797</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N11" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O11" t="n">
-        <v>264.2864656901256</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P11" t="n">
-        <v>225.5623839830385</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q11" t="n">
-        <v>169.3879565952893</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R11" t="n">
-        <v>98.5317102798101</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S11" t="n">
-        <v>35.74379795038979</v>
+        <v>36.46991546214919</v>
       </c>
       <c r="T11" t="n">
-        <v>6.866416918390839</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H12" t="n">
-        <v>8.105476549263036</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I12" t="n">
-        <v>28.8955453731675</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J12" t="n">
-        <v>79.29158508068804</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K12" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L12" t="n">
         <v>169.0363433314465</v>
@@ -31856,22 +31858,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P12" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q12" t="n">
-        <v>107.1306945911678</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R12" t="n">
-        <v>52.1076866627464</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S12" t="n">
-        <v>15.5888706567343</v>
+        <v>15.90555082564409</v>
       </c>
       <c r="T12" t="n">
-        <v>3.382803337317315</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H13" t="n">
-        <v>6.255703033821718</v>
+        <v>6.382784535556058</v>
       </c>
       <c r="I13" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J13" t="n">
-        <v>49.74499232518554</v>
+        <v>50.7555371503266</v>
       </c>
       <c r="K13" t="n">
-        <v>81.74630344809967</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L13" t="n">
-        <v>104.6071241463398</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M13" t="n">
-        <v>110.293545411235</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N13" t="n">
-        <v>107.6710114195511</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O13" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P13" t="n">
-        <v>85.09802981795914</v>
+        <v>86.82675405014078</v>
       </c>
       <c r="Q13" t="n">
-        <v>58.91746487170941</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R13" t="n">
-        <v>31.63671493382637</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S13" t="n">
-        <v>12.26194551721495</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T13" t="n">
-        <v>3.0063194538816</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.568570398261756</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H14" t="n">
-        <v>16.06412159119821</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I14" t="n">
-        <v>60.4723102789864</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J14" t="n">
-        <v>133.1304518394688</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K14" t="n">
-        <v>199.528036797889</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L14" t="n">
-        <v>247.5321731236922</v>
+        <v>252.5606663430875</v>
       </c>
       <c r="M14" t="n">
-        <v>275.4272369437797</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N14" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O14" t="n">
-        <v>264.2864656901256</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P14" t="n">
-        <v>225.5623839830385</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q14" t="n">
-        <v>169.3879565952893</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R14" t="n">
-        <v>98.5317102798101</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S14" t="n">
-        <v>35.74379795038979</v>
+        <v>36.46991546214919</v>
       </c>
       <c r="T14" t="n">
-        <v>6.866416918390839</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H15" t="n">
-        <v>8.105476549263036</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I15" t="n">
-        <v>28.8955453731675</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J15" t="n">
-        <v>79.29158508068804</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K15" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L15" t="n">
         <v>169.0363433314465</v>
@@ -32093,22 +32095,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P15" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q15" t="n">
-        <v>107.1306945911678</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R15" t="n">
-        <v>52.1076866627464</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S15" t="n">
-        <v>15.5888706567343</v>
+        <v>15.90555082564409</v>
       </c>
       <c r="T15" t="n">
-        <v>3.382803337317315</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H16" t="n">
-        <v>6.255703033821718</v>
+        <v>6.382784535556058</v>
       </c>
       <c r="I16" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J16" t="n">
-        <v>49.74499232518554</v>
+        <v>50.7555371503266</v>
       </c>
       <c r="K16" t="n">
-        <v>81.74630344809967</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L16" t="n">
-        <v>104.6071241463398</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M16" t="n">
-        <v>110.293545411235</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N16" t="n">
-        <v>107.6710114195511</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O16" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P16" t="n">
-        <v>85.09802981795914</v>
+        <v>86.82675405014078</v>
       </c>
       <c r="Q16" t="n">
-        <v>58.91746487170941</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R16" t="n">
-        <v>31.63671493382637</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S16" t="n">
-        <v>12.26194551721495</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T16" t="n">
-        <v>3.0063194538816</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.568570398261756</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H17" t="n">
-        <v>16.06412159119821</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I17" t="n">
-        <v>60.4723102789864</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J17" t="n">
-        <v>133.1304518394688</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K17" t="n">
-        <v>199.528036797889</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L17" t="n">
-        <v>247.5321731236922</v>
+        <v>252.5606663430875</v>
       </c>
       <c r="M17" t="n">
-        <v>275.4272369437797</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N17" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O17" t="n">
-        <v>264.2864656901256</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P17" t="n">
-        <v>225.5623839830385</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q17" t="n">
-        <v>169.3879565952893</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R17" t="n">
-        <v>98.5317102798101</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S17" t="n">
-        <v>35.74379795038979</v>
+        <v>36.46991546214919</v>
       </c>
       <c r="T17" t="n">
-        <v>6.866416918390839</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H18" t="n">
-        <v>8.105476549263036</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I18" t="n">
-        <v>28.8955453731675</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J18" t="n">
-        <v>79.29158508068804</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K18" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L18" t="n">
         <v>169.0363433314465</v>
@@ -32330,22 +32332,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P18" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q18" t="n">
-        <v>107.1306945911678</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R18" t="n">
-        <v>52.1076866627464</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S18" t="n">
-        <v>15.5888706567343</v>
+        <v>15.90555082564409</v>
       </c>
       <c r="T18" t="n">
-        <v>3.382803337317315</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H19" t="n">
-        <v>6.255703033821718</v>
+        <v>6.382784535556058</v>
       </c>
       <c r="I19" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J19" t="n">
-        <v>49.74499232518554</v>
+        <v>50.7555371503266</v>
       </c>
       <c r="K19" t="n">
-        <v>81.74630344809967</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L19" t="n">
-        <v>104.6071241463398</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M19" t="n">
-        <v>110.293545411235</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N19" t="n">
-        <v>107.6710114195511</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O19" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P19" t="n">
-        <v>85.09802981795914</v>
+        <v>86.82675405014078</v>
       </c>
       <c r="Q19" t="n">
-        <v>58.91746487170941</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R19" t="n">
-        <v>31.63671493382637</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S19" t="n">
-        <v>12.26194551721495</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T19" t="n">
-        <v>3.0063194538816</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.568570398261756</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H20" t="n">
-        <v>16.06412159119821</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I20" t="n">
-        <v>60.4723102789864</v>
+        <v>61.70077524320379</v>
       </c>
       <c r="J20" t="n">
-        <v>133.1304518394688</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K20" t="n">
-        <v>199.528036797889</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L20" t="n">
-        <v>247.5321731236922</v>
+        <v>252.5606663430875</v>
       </c>
       <c r="M20" t="n">
-        <v>275.4272369437797</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N20" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O20" t="n">
-        <v>264.2864656901256</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P20" t="n">
-        <v>225.5623839830385</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q20" t="n">
-        <v>169.3879565952893</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R20" t="n">
-        <v>98.5317102798101</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S20" t="n">
-        <v>35.74379795038979</v>
+        <v>36.46991546214919</v>
       </c>
       <c r="T20" t="n">
-        <v>6.866416918390839</v>
+        <v>7.005904769525309</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1280348101797885</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8563082853003201</v>
       </c>
       <c r="H21" t="n">
-        <v>8.105476549263036</v>
+        <v>8.27013528171625</v>
       </c>
       <c r="I21" t="n">
-        <v>28.8955453731675</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J21" t="n">
-        <v>79.29158508068804</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K21" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L21" t="n">
         <v>169.0363433314465</v>
@@ -32567,22 +32569,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P21" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q21" t="n">
-        <v>107.1306945911678</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R21" t="n">
-        <v>52.1076866627464</v>
+        <v>53.16622845048832</v>
       </c>
       <c r="S21" t="n">
-        <v>15.5888706567343</v>
+        <v>15.90555082564409</v>
       </c>
       <c r="T21" t="n">
-        <v>3.382803337317315</v>
+        <v>3.451523307855236</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05633607140133687</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H22" t="n">
-        <v>6.255703033821718</v>
+        <v>6.382784535556056</v>
       </c>
       <c r="I22" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J22" t="n">
-        <v>49.74499232518554</v>
+        <v>50.7555371503266</v>
       </c>
       <c r="K22" t="n">
-        <v>81.74630344809967</v>
+        <v>83.40693902291035</v>
       </c>
       <c r="L22" t="n">
-        <v>104.6071241463398</v>
+        <v>106.7321659452798</v>
       </c>
       <c r="M22" t="n">
-        <v>110.293545411235</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N22" t="n">
-        <v>107.6710114195511</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O22" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4719161133185</v>
       </c>
       <c r="P22" t="n">
-        <v>85.09802981795914</v>
+        <v>86.82675405014078</v>
       </c>
       <c r="Q22" t="n">
-        <v>58.91746487170941</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R22" t="n">
-        <v>31.63671493382637</v>
+        <v>32.27939909290411</v>
       </c>
       <c r="S22" t="n">
-        <v>12.26194551721495</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T22" t="n">
-        <v>3.0063194538816</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03915818733469975</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.568570398261756</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H23" t="n">
-        <v>16.06412159119821</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I23" t="n">
-        <v>60.4723102789864</v>
+        <v>61.70077524320379</v>
       </c>
       <c r="J23" t="n">
-        <v>133.1304518394688</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K23" t="n">
-        <v>199.528036797889</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L23" t="n">
-        <v>247.5321731236922</v>
+        <v>252.5606663430875</v>
       </c>
       <c r="M23" t="n">
-        <v>275.4272369437797</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N23" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O23" t="n">
-        <v>264.2864656901256</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P23" t="n">
-        <v>225.5623839830385</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q23" t="n">
-        <v>169.3879565952893</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R23" t="n">
-        <v>98.5317102798101</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S23" t="n">
-        <v>35.74379795038979</v>
+        <v>36.46991546214919</v>
       </c>
       <c r="T23" t="n">
-        <v>6.866416918390839</v>
+        <v>7.005904769525309</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1280348101797885</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8563082853003201</v>
       </c>
       <c r="H24" t="n">
-        <v>8.105476549263036</v>
+        <v>8.27013528171625</v>
       </c>
       <c r="I24" t="n">
-        <v>28.8955453731675</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J24" t="n">
-        <v>79.29158508068804</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K24" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L24" t="n">
         <v>169.0363433314465</v>
@@ -32804,22 +32806,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P24" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q24" t="n">
-        <v>107.1306945911678</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R24" t="n">
-        <v>52.1076866627464</v>
+        <v>53.16622845048832</v>
       </c>
       <c r="S24" t="n">
-        <v>15.5888706567343</v>
+        <v>15.90555082564409</v>
       </c>
       <c r="T24" t="n">
-        <v>3.382803337317315</v>
+        <v>3.451523307855236</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05633607140133687</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H25" t="n">
-        <v>6.255703033821718</v>
+        <v>6.382784535556056</v>
       </c>
       <c r="I25" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J25" t="n">
-        <v>49.74499232518554</v>
+        <v>50.7555371503266</v>
       </c>
       <c r="K25" t="n">
-        <v>81.74630344809967</v>
+        <v>83.40693902291035</v>
       </c>
       <c r="L25" t="n">
-        <v>104.6071241463398</v>
+        <v>106.7321659452798</v>
       </c>
       <c r="M25" t="n">
-        <v>110.293545411235</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N25" t="n">
-        <v>107.6710114195511</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O25" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4719161133185</v>
       </c>
       <c r="P25" t="n">
-        <v>85.09802981795914</v>
+        <v>86.82675405014078</v>
       </c>
       <c r="Q25" t="n">
-        <v>58.91746487170941</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R25" t="n">
-        <v>31.63671493382637</v>
+        <v>32.27939909290411</v>
       </c>
       <c r="S25" t="n">
-        <v>12.26194551721495</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T25" t="n">
-        <v>3.0063194538816</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03915818733469975</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.568570398261756</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H26" t="n">
-        <v>16.06412159119821</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I26" t="n">
-        <v>60.4723102789864</v>
+        <v>61.70077524320379</v>
       </c>
       <c r="J26" t="n">
-        <v>133.1304518394688</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K26" t="n">
-        <v>199.528036797889</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L26" t="n">
-        <v>247.5321731236922</v>
+        <v>252.5606663430875</v>
       </c>
       <c r="M26" t="n">
-        <v>275.4272369437797</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N26" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O26" t="n">
-        <v>264.2864656901256</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P26" t="n">
-        <v>225.5623839830385</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q26" t="n">
-        <v>169.3879565952893</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R26" t="n">
-        <v>98.5317102798101</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S26" t="n">
-        <v>35.74379795038979</v>
+        <v>36.46991546214919</v>
       </c>
       <c r="T26" t="n">
-        <v>6.866416918390839</v>
+        <v>7.005904769525309</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1280348101797885</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8563082853003201</v>
       </c>
       <c r="H27" t="n">
-        <v>8.105476549263036</v>
+        <v>8.27013528171625</v>
       </c>
       <c r="I27" t="n">
-        <v>28.8955453731675</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J27" t="n">
-        <v>79.29158508068804</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K27" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L27" t="n">
         <v>169.0363433314465</v>
@@ -33041,22 +33043,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P27" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q27" t="n">
-        <v>107.1306945911678</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R27" t="n">
-        <v>52.1076866627464</v>
+        <v>53.16622845048832</v>
       </c>
       <c r="S27" t="n">
-        <v>15.5888706567343</v>
+        <v>15.90555082564409</v>
       </c>
       <c r="T27" t="n">
-        <v>3.382803337317315</v>
+        <v>3.451523307855236</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05633607140133687</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H28" t="n">
-        <v>6.255703033821718</v>
+        <v>6.382784535556056</v>
       </c>
       <c r="I28" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J28" t="n">
-        <v>49.74499232518554</v>
+        <v>50.7555371503266</v>
       </c>
       <c r="K28" t="n">
-        <v>81.74630344809967</v>
+        <v>83.40693902291035</v>
       </c>
       <c r="L28" t="n">
-        <v>104.6071241463398</v>
+        <v>106.7321659452798</v>
       </c>
       <c r="M28" t="n">
-        <v>110.293545411235</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N28" t="n">
-        <v>107.6710114195511</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O28" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4719161133185</v>
       </c>
       <c r="P28" t="n">
-        <v>85.09802981795914</v>
+        <v>86.82675405014078</v>
       </c>
       <c r="Q28" t="n">
-        <v>58.91746487170941</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R28" t="n">
-        <v>31.63671493382637</v>
+        <v>32.27939909290411</v>
       </c>
       <c r="S28" t="n">
-        <v>12.26194551721495</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T28" t="n">
-        <v>3.0063194538816</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03915818733469975</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.568570398261756</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H29" t="n">
-        <v>16.06412159119821</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I29" t="n">
-        <v>60.4723102789864</v>
+        <v>61.70077524320379</v>
       </c>
       <c r="J29" t="n">
-        <v>133.1304518394688</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K29" t="n">
-        <v>199.528036797889</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L29" t="n">
-        <v>247.5321731236922</v>
+        <v>252.5606663430875</v>
       </c>
       <c r="M29" t="n">
-        <v>275.4272369437797</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N29" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O29" t="n">
-        <v>264.2864656901256</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P29" t="n">
-        <v>225.5623839830385</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q29" t="n">
-        <v>169.3879565952893</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R29" t="n">
-        <v>98.5317102798101</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S29" t="n">
-        <v>35.74379795038979</v>
+        <v>36.46991546214919</v>
       </c>
       <c r="T29" t="n">
-        <v>6.866416918390839</v>
+        <v>7.005904769525309</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1280348101797885</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8563082853003201</v>
       </c>
       <c r="H30" t="n">
-        <v>8.105476549263036</v>
+        <v>8.27013528171625</v>
       </c>
       <c r="I30" t="n">
-        <v>28.8955453731675</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J30" t="n">
-        <v>79.29158508068804</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K30" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L30" t="n">
         <v>169.0363433314465</v>
@@ -33278,22 +33280,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P30" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q30" t="n">
-        <v>107.1306945911678</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R30" t="n">
-        <v>52.1076866627464</v>
+        <v>53.16622845048832</v>
       </c>
       <c r="S30" t="n">
-        <v>15.5888706567343</v>
+        <v>15.90555082564409</v>
       </c>
       <c r="T30" t="n">
-        <v>3.382803337317315</v>
+        <v>3.451523307855236</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05633607140133687</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H31" t="n">
-        <v>6.255703033821718</v>
+        <v>6.382784535556056</v>
       </c>
       <c r="I31" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J31" t="n">
-        <v>49.74499232518554</v>
+        <v>50.7555371503266</v>
       </c>
       <c r="K31" t="n">
-        <v>81.74630344809967</v>
+        <v>83.40693902291035</v>
       </c>
       <c r="L31" t="n">
-        <v>104.6071241463398</v>
+        <v>106.7321659452798</v>
       </c>
       <c r="M31" t="n">
-        <v>110.293545411235</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N31" t="n">
-        <v>107.6710114195511</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O31" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4719161133185</v>
       </c>
       <c r="P31" t="n">
-        <v>85.09802981795914</v>
+        <v>86.82675405014078</v>
       </c>
       <c r="Q31" t="n">
-        <v>58.91746487170941</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R31" t="n">
-        <v>31.63671493382637</v>
+        <v>32.27939909290411</v>
       </c>
       <c r="S31" t="n">
-        <v>12.26194551721495</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T31" t="n">
-        <v>3.0063194538816</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03915818733469975</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.568570398261756</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H32" t="n">
-        <v>16.06412159119821</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I32" t="n">
-        <v>60.4723102789864</v>
+        <v>61.70077524320379</v>
       </c>
       <c r="J32" t="n">
-        <v>133.1304518394688</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K32" t="n">
-        <v>199.528036797889</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L32" t="n">
-        <v>247.5321731236922</v>
+        <v>252.5606663430875</v>
       </c>
       <c r="M32" t="n">
-        <v>275.4272369437797</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N32" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O32" t="n">
-        <v>264.2864656901256</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P32" t="n">
-        <v>225.5623839830385</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q32" t="n">
-        <v>169.3879565952893</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R32" t="n">
-        <v>98.5317102798101</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S32" t="n">
-        <v>35.74379795038979</v>
+        <v>36.46991546214919</v>
       </c>
       <c r="T32" t="n">
-        <v>6.866416918390839</v>
+        <v>7.005904769525309</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1280348101797885</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8563082853003201</v>
       </c>
       <c r="H33" t="n">
-        <v>8.105476549263036</v>
+        <v>8.27013528171625</v>
       </c>
       <c r="I33" t="n">
-        <v>28.8955453731675</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J33" t="n">
-        <v>79.29158508068804</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K33" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L33" t="n">
         <v>169.0363433314465</v>
@@ -33515,22 +33517,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P33" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q33" t="n">
-        <v>107.1306945911678</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R33" t="n">
-        <v>52.1076866627464</v>
+        <v>53.16622845048832</v>
       </c>
       <c r="S33" t="n">
-        <v>15.5888706567343</v>
+        <v>15.90555082564409</v>
       </c>
       <c r="T33" t="n">
-        <v>3.382803337317315</v>
+        <v>3.451523307855236</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05633607140133687</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H34" t="n">
-        <v>6.255703033821718</v>
+        <v>6.382784535556056</v>
       </c>
       <c r="I34" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J34" t="n">
-        <v>49.74499232518554</v>
+        <v>50.7555371503266</v>
       </c>
       <c r="K34" t="n">
-        <v>81.74630344809967</v>
+        <v>83.40693902291035</v>
       </c>
       <c r="L34" t="n">
-        <v>104.6071241463398</v>
+        <v>106.7321659452798</v>
       </c>
       <c r="M34" t="n">
-        <v>110.293545411235</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N34" t="n">
-        <v>107.6710114195511</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O34" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4719161133185</v>
       </c>
       <c r="P34" t="n">
-        <v>85.09802981795914</v>
+        <v>86.82675405014078</v>
       </c>
       <c r="Q34" t="n">
-        <v>58.91746487170941</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R34" t="n">
-        <v>31.63671493382637</v>
+        <v>32.27939909290411</v>
       </c>
       <c r="S34" t="n">
-        <v>12.26194551721495</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T34" t="n">
-        <v>3.0063194538816</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03915818733469975</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.568570398261756</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H35" t="n">
-        <v>16.06412159119821</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I35" t="n">
-        <v>60.4723102789864</v>
+        <v>61.70077524320379</v>
       </c>
       <c r="J35" t="n">
-        <v>133.1304518394688</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K35" t="n">
-        <v>199.528036797889</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L35" t="n">
-        <v>247.5321731236922</v>
+        <v>252.5606663430875</v>
       </c>
       <c r="M35" t="n">
-        <v>275.4272369437797</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N35" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O35" t="n">
-        <v>264.2864656901256</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P35" t="n">
-        <v>225.5623839830385</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q35" t="n">
-        <v>169.3879565952893</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R35" t="n">
-        <v>98.5317102798101</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S35" t="n">
-        <v>35.74379795038979</v>
+        <v>36.46991546214919</v>
       </c>
       <c r="T35" t="n">
-        <v>6.866416918390839</v>
+        <v>7.005904769525309</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1280348101797885</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8563082853003201</v>
       </c>
       <c r="H36" t="n">
-        <v>8.105476549263036</v>
+        <v>8.27013528171625</v>
       </c>
       <c r="I36" t="n">
-        <v>28.8955453731675</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J36" t="n">
-        <v>79.29158508068804</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K36" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L36" t="n">
         <v>169.0363433314465</v>
@@ -33752,22 +33754,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P36" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q36" t="n">
-        <v>107.1306945911678</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R36" t="n">
-        <v>52.1076866627464</v>
+        <v>53.16622845048832</v>
       </c>
       <c r="S36" t="n">
-        <v>15.5888706567343</v>
+        <v>15.90555082564409</v>
       </c>
       <c r="T36" t="n">
-        <v>3.382803337317315</v>
+        <v>3.451523307855236</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05633607140133687</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H37" t="n">
-        <v>6.255703033821718</v>
+        <v>6.382784535556056</v>
       </c>
       <c r="I37" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J37" t="n">
-        <v>49.74499232518554</v>
+        <v>50.7555371503266</v>
       </c>
       <c r="K37" t="n">
-        <v>81.74630344809967</v>
+        <v>83.40693902291035</v>
       </c>
       <c r="L37" t="n">
-        <v>104.6071241463398</v>
+        <v>106.7321659452798</v>
       </c>
       <c r="M37" t="n">
-        <v>110.293545411235</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N37" t="n">
-        <v>107.6710114195511</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O37" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4719161133185</v>
       </c>
       <c r="P37" t="n">
-        <v>85.09802981795914</v>
+        <v>86.82675405014078</v>
       </c>
       <c r="Q37" t="n">
-        <v>58.91746487170941</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R37" t="n">
-        <v>31.63671493382637</v>
+        <v>32.27939909290411</v>
       </c>
       <c r="S37" t="n">
-        <v>12.26194551721495</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T37" t="n">
-        <v>3.0063194538816</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03915818733469975</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.568570398261756</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H38" t="n">
-        <v>16.06412159119821</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I38" t="n">
-        <v>60.47231027898639</v>
+        <v>61.70077524320379</v>
       </c>
       <c r="J38" t="n">
-        <v>133.1304518394688</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K38" t="n">
-        <v>199.5280367978889</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L38" t="n">
-        <v>247.5321731236922</v>
+        <v>252.5606663430875</v>
       </c>
       <c r="M38" t="n">
-        <v>275.4272369437797</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N38" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O38" t="n">
-        <v>264.2864656901256</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P38" t="n">
-        <v>225.5623839830384</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q38" t="n">
-        <v>169.3879565952893</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R38" t="n">
-        <v>98.5317102798101</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S38" t="n">
-        <v>35.74379795038979</v>
+        <v>36.46991546214919</v>
       </c>
       <c r="T38" t="n">
-        <v>6.866416918390839</v>
+        <v>7.005904769525309</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1280348101797885</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8392591522397692</v>
+        <v>0.8563082853003201</v>
       </c>
       <c r="H39" t="n">
-        <v>8.105476549263036</v>
+        <v>8.27013528171625</v>
       </c>
       <c r="I39" t="n">
-        <v>28.8955453731675</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J39" t="n">
-        <v>79.29158508068804</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K39" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L39" t="n">
         <v>169.0363433314465</v>
@@ -33989,22 +33991,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P39" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q39" t="n">
-        <v>107.1306945911678</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R39" t="n">
-        <v>52.10768666274639</v>
+        <v>53.16622845048832</v>
       </c>
       <c r="S39" t="n">
-        <v>15.5888706567343</v>
+        <v>15.90555082564409</v>
       </c>
       <c r="T39" t="n">
-        <v>3.382803337317314</v>
+        <v>3.451523307855236</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05521441791051115</v>
+        <v>0.05633607140133687</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7036066806956937</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H40" t="n">
-        <v>6.255703033821718</v>
+        <v>6.382784535556056</v>
       </c>
       <c r="I40" t="n">
-        <v>21.1593718158305</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J40" t="n">
-        <v>49.74499232518554</v>
+        <v>50.7555371503266</v>
       </c>
       <c r="K40" t="n">
-        <v>81.74630344809967</v>
+        <v>83.40693902291035</v>
       </c>
       <c r="L40" t="n">
-        <v>104.6071241463398</v>
+        <v>106.7321659452798</v>
       </c>
       <c r="M40" t="n">
-        <v>110.293545411235</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N40" t="n">
-        <v>107.6710114195511</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O40" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4719161133185</v>
       </c>
       <c r="P40" t="n">
-        <v>85.09802981795914</v>
+        <v>86.82675405014078</v>
       </c>
       <c r="Q40" t="n">
-        <v>58.91746487170941</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R40" t="n">
-        <v>31.63671493382637</v>
+        <v>32.27939909290411</v>
       </c>
       <c r="S40" t="n">
-        <v>12.26194551721495</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T40" t="n">
-        <v>3.006319453881599</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03915818733469975</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.568570398261756</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H41" t="n">
-        <v>16.06412159119821</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I41" t="n">
-        <v>60.4723102789864</v>
+        <v>61.70077524320379</v>
       </c>
       <c r="J41" t="n">
-        <v>133.1304518394688</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K41" t="n">
-        <v>199.528036797889</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L41" t="n">
-        <v>247.5321731236922</v>
+        <v>252.5606663430875</v>
       </c>
       <c r="M41" t="n">
-        <v>275.4272369437797</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N41" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O41" t="n">
-        <v>264.2864656901256</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P41" t="n">
-        <v>225.5623839830385</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q41" t="n">
-        <v>169.3879565952893</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R41" t="n">
-        <v>98.5317102798101</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S41" t="n">
-        <v>35.74379795038979</v>
+        <v>36.46991546214919</v>
       </c>
       <c r="T41" t="n">
-        <v>6.866416918390839</v>
+        <v>7.005904769525309</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1280348101797885</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8563082853003201</v>
       </c>
       <c r="H42" t="n">
-        <v>8.105476549263036</v>
+        <v>8.27013528171625</v>
       </c>
       <c r="I42" t="n">
-        <v>28.8955453731675</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J42" t="n">
-        <v>79.29158508068804</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K42" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L42" t="n">
         <v>169.0363433314465</v>
@@ -34226,22 +34228,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P42" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q42" t="n">
-        <v>107.1306945911678</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R42" t="n">
-        <v>52.1076866627464</v>
+        <v>53.16622845048832</v>
       </c>
       <c r="S42" t="n">
-        <v>15.5888706567343</v>
+        <v>15.90555082564409</v>
       </c>
       <c r="T42" t="n">
-        <v>3.382803337317315</v>
+        <v>3.451523307855236</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05633607140133687</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H43" t="n">
-        <v>6.255703033821718</v>
+        <v>6.382784535556056</v>
       </c>
       <c r="I43" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J43" t="n">
-        <v>49.74499232518554</v>
+        <v>50.7555371503266</v>
       </c>
       <c r="K43" t="n">
-        <v>81.74630344809967</v>
+        <v>83.40693902291035</v>
       </c>
       <c r="L43" t="n">
-        <v>104.6071241463398</v>
+        <v>106.7321659452798</v>
       </c>
       <c r="M43" t="n">
-        <v>110.293545411235</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N43" t="n">
-        <v>107.6710114195511</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O43" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4719161133185</v>
       </c>
       <c r="P43" t="n">
-        <v>85.09802981795914</v>
+        <v>86.82675405014078</v>
       </c>
       <c r="Q43" t="n">
-        <v>58.91746487170941</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R43" t="n">
-        <v>31.63671493382637</v>
+        <v>32.27939909290411</v>
       </c>
       <c r="S43" t="n">
-        <v>12.26194551721495</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T43" t="n">
-        <v>3.0063194538816</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03915818733469975</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.568570398261756</v>
+        <v>1.666104223186756</v>
       </c>
       <c r="H44" t="n">
-        <v>16.06412159119821</v>
+        <v>17.06298987571137</v>
       </c>
       <c r="I44" t="n">
-        <v>60.4723102789864</v>
+        <v>64.23248306440749</v>
       </c>
       <c r="J44" t="n">
-        <v>133.1304518394688</v>
+        <v>141.4085133126971</v>
       </c>
       <c r="K44" t="n">
-        <v>199.528036797889</v>
+        <v>211.9347050801925</v>
       </c>
       <c r="L44" t="n">
-        <v>247.5321731236922</v>
+        <v>262.9237422005443</v>
       </c>
       <c r="M44" t="n">
-        <v>275.4272369437797</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N44" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O44" t="n">
-        <v>264.2864656901256</v>
+        <v>280.7198179344578</v>
       </c>
       <c r="P44" t="n">
-        <v>225.5623839830385</v>
+        <v>239.5878699245347</v>
       </c>
       <c r="Q44" t="n">
-        <v>169.3879565952893</v>
+        <v>179.9205124316589</v>
       </c>
       <c r="R44" t="n">
-        <v>98.5317102798101</v>
+        <v>104.6584194097552</v>
       </c>
       <c r="S44" t="n">
-        <v>35.74379795038979</v>
+        <v>37.96634998586825</v>
       </c>
       <c r="T44" t="n">
-        <v>6.866416918390839</v>
+        <v>7.29337123700003</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1332883378549405</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8914443492267637</v>
       </c>
       <c r="H45" t="n">
-        <v>8.105476549263036</v>
+        <v>8.6094756885848</v>
       </c>
       <c r="I45" t="n">
-        <v>28.8955453731675</v>
+        <v>30.692272550132</v>
       </c>
       <c r="J45" t="n">
-        <v>79.29158508068804</v>
+        <v>84.2219417837444</v>
       </c>
       <c r="K45" t="n">
-        <v>135.5219482807526</v>
+        <v>143.9487131819376</v>
       </c>
       <c r="L45" t="n">
         <v>169.0363433314465</v>
@@ -34463,22 +34465,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P45" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q45" t="n">
-        <v>107.1306945911678</v>
+        <v>113.792089210069</v>
       </c>
       <c r="R45" t="n">
-        <v>52.1076866627464</v>
+        <v>55.34774652479857</v>
       </c>
       <c r="S45" t="n">
-        <v>15.5888706567343</v>
+        <v>16.55818780252343</v>
       </c>
       <c r="T45" t="n">
-        <v>3.382803337317315</v>
+        <v>3.59314630236577</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05864765455439238</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7473569968352074</v>
       </c>
       <c r="H46" t="n">
-        <v>6.255703033821718</v>
+        <v>6.644683117316667</v>
       </c>
       <c r="I46" t="n">
-        <v>21.15937181583051</v>
+        <v>22.4750631411897</v>
       </c>
       <c r="J46" t="n">
-        <v>49.74499232518554</v>
+        <v>52.83813967624916</v>
       </c>
       <c r="K46" t="n">
-        <v>81.74630344809967</v>
+        <v>86.82929472321771</v>
       </c>
       <c r="L46" t="n">
-        <v>104.6071241463398</v>
+        <v>111.1116029658453</v>
       </c>
       <c r="M46" t="n">
-        <v>110.293545411235</v>
+        <v>117.1516063311771</v>
       </c>
       <c r="N46" t="n">
-        <v>107.6710114195511</v>
+        <v>114.3660029793369</v>
       </c>
       <c r="O46" t="n">
-        <v>99.45160610415137</v>
+        <v>105.6355144253983</v>
       </c>
       <c r="P46" t="n">
-        <v>85.09802981795914</v>
+        <v>90.38943168995995</v>
       </c>
       <c r="Q46" t="n">
-        <v>58.91746487170941</v>
+        <v>62.58095725317359</v>
       </c>
       <c r="R46" t="n">
-        <v>31.63671493382637</v>
+        <v>33.60388823951759</v>
       </c>
       <c r="S46" t="n">
-        <v>12.26194551721495</v>
+        <v>13.02439420848265</v>
       </c>
       <c r="T46" t="n">
-        <v>3.0063194538816</v>
+        <v>3.19325262284134</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.04076492710010227</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_11_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_11_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23918.92574136779</v>
+        <v>-102038.6061980781</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7428029.320514712</v>
+        <v>6608762.39709981</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23323525.94945212</v>
+        <v>22442968.73227286</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4585677.131606536</v>
+        <v>5045134.963630492</v>
       </c>
     </row>
     <row r="11">
@@ -7981,25 +7981,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K2" t="n">
-        <v>122.0365346358061</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L2" t="n">
-        <v>105.9222139730819</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N2" t="n">
-        <v>74.42176767202952</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O2" t="n">
-        <v>86.70771710415687</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P2" t="n">
-        <v>116.5194153913582</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.5801139476182</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R2" t="n">
         <v>42.58424007769262</v>
@@ -8060,10 +8060,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K3" t="n">
-        <v>68.68019772140312</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P3" t="n">
-        <v>45.801031517992</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q3" t="n">
-        <v>92.13336211952077</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R3" t="n">
         <v>29.49804203773589</v>
@@ -8142,16 +8142,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L4" t="n">
-        <v>87.76745019286052</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M4" t="n">
-        <v>88.52321246794781</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N4" t="n">
-        <v>76.73531661208723</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O4" t="n">
-        <v>95.90977625558899</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P4" t="n">
         <v>87.48425302749862</v>
@@ -8221,19 +8221,19 @@
         <v>105.8056161847214</v>
       </c>
       <c r="L5" t="n">
-        <v>85.78632439852493</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N5" t="n">
         <v>51.65417350500871</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P5" t="n">
-        <v>98.17069248095632</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q5" t="n">
         <v>133.0864964302902</v>
@@ -8300,7 +8300,7 @@
         <v>57.65595408036968</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P6" t="n">
         <v>32.7642952373794</v>
@@ -8379,16 +8379,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L7" t="n">
-        <v>79.25802099849831</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M7" t="n">
-        <v>79.55121249250526</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N7" t="n">
         <v>67.97665074265473</v>
       </c>
       <c r="O7" t="n">
-        <v>87.8197306940173</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P7" t="n">
         <v>87.48425302749862</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K8" t="n">
-        <v>105.8056161847214</v>
+        <v>94.6755543817487</v>
       </c>
       <c r="L8" t="n">
-        <v>85.7863243985249</v>
+        <v>71.97849854454961</v>
       </c>
       <c r="M8" t="n">
-        <v>56.42683163149823</v>
+        <v>41.06296488573622</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>36.04170333287215</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>50.4665106791827</v>
       </c>
       <c r="P8" t="n">
-        <v>98.17069248095629</v>
+        <v>85.5883841775869</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R8" t="n">
         <v>42.58424007769262</v>
@@ -8534,10 +8534,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>57.65595408036968</v>
+        <v>50.09627633166345</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10.27628214666007</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>23.82458668363594</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>77.442690741435</v>
       </c>
       <c r="R9" t="n">
         <v>29.49804203773589</v>
@@ -8616,16 +8616,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>73.42283224274789</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>73.3988241034014</v>
       </c>
       <c r="N10" t="n">
-        <v>67.97665074265473</v>
+        <v>61.97055239817956</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>82.27212675770768</v>
       </c>
       <c r="P10" t="n">
         <v>87.48425302749862</v>
@@ -8692,10 +8692,10 @@
         <v>85.04107264134677</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>35.07435992029684</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R11" t="n">
         <v>42.58424007769262</v>
@@ -8771,7 +8771,7 @@
         <v>73.8395502629202</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8859,13 +8859,13 @@
         <v>56.95535238070698</v>
       </c>
       <c r="N13" t="n">
-        <v>45.91806968008439</v>
+        <v>45.91806968008437</v>
       </c>
       <c r="O13" t="n">
         <v>67.44506079792963</v>
       </c>
       <c r="P13" t="n">
-        <v>81.2014108898193</v>
+        <v>81.20141088981929</v>
       </c>
       <c r="Q13" t="n">
         <v>42.34223702878295</v>
@@ -8929,10 +8929,10 @@
         <v>85.04107264134677</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>35.07435992029684</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R14" t="n">
         <v>42.58424007769262</v>
@@ -9008,7 +9008,7 @@
         <v>73.8395502629202</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9096,13 +9096,13 @@
         <v>56.95535238070698</v>
       </c>
       <c r="N16" t="n">
-        <v>45.91806968008439</v>
+        <v>45.91806968008437</v>
       </c>
       <c r="O16" t="n">
         <v>67.44506079792963</v>
       </c>
       <c r="P16" t="n">
-        <v>81.2014108898193</v>
+        <v>81.20141088981929</v>
       </c>
       <c r="Q16" t="n">
         <v>42.34223702878295</v>
@@ -9166,10 +9166,10 @@
         <v>85.04107264134677</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>35.07435992029684</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,10 +9178,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q17" t="n">
         <v>98.3839527992952</v>
@@ -9245,7 +9245,7 @@
         <v>73.8395502629202</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9333,13 +9333,13 @@
         <v>56.95535238070698</v>
       </c>
       <c r="N19" t="n">
-        <v>45.91806968008439</v>
+        <v>45.91806968008437</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P19" t="n">
-        <v>81.2014108898193</v>
+        <v>81.20141088981929</v>
       </c>
       <c r="Q19" t="n">
         <v>42.34223702878295</v>
@@ -9403,10 +9403,10 @@
         <v>85.04107264134677</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>35.07435992029684</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,10 +9415,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q20" t="n">
         <v>98.3839527992952</v>
@@ -9482,7 +9482,7 @@
         <v>73.8395502629202</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>61.47076291397909</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9564,19 +9564,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L22" t="n">
-        <v>57.82713911783087</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M22" t="n">
-        <v>56.955352380707</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N22" t="n">
-        <v>45.9180696800844</v>
+        <v>45.91806968008437</v>
       </c>
       <c r="O22" t="n">
-        <v>67.44506079792964</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P22" t="n">
-        <v>81.2014108898193</v>
+        <v>81.20141088981929</v>
       </c>
       <c r="Q22" t="n">
         <v>42.34223702878295</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>35.07435992029684</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>73.8395502629202</v>
       </c>
       <c r="K24" t="n">
-        <v>29.89154616318336</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9801,19 +9801,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L25" t="n">
-        <v>57.82713911783087</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>45.91806968008437</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P25" t="n">
-        <v>81.2014108898193</v>
+        <v>81.20141088981929</v>
       </c>
       <c r="Q25" t="n">
         <v>42.34223702878295</v>
@@ -9877,10 +9877,10 @@
         <v>85.04107264134677</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>35.07435992029684</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,13 +9889,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R26" t="n">
         <v>42.58424007769262</v>
@@ -9956,7 +9956,7 @@
         <v>73.8395502629202</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>61.47076291397909</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10038,19 +10038,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>57.82713911783087</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M28" t="n">
-        <v>56.955352380707</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N28" t="n">
-        <v>45.9180696800844</v>
+        <v>45.91806968008437</v>
       </c>
       <c r="O28" t="n">
-        <v>67.44506079792964</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P28" t="n">
-        <v>81.2014108898193</v>
+        <v>81.20141088981929</v>
       </c>
       <c r="Q28" t="n">
         <v>42.34223702878295</v>
@@ -10114,10 +10114,10 @@
         <v>85.04107264134677</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>35.07435992029684</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q29" t="n">
         <v>98.3839527992952</v>
@@ -10193,7 +10193,7 @@
         <v>73.8395502629202</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>61.47076291397909</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10275,19 +10275,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L31" t="n">
-        <v>57.82713911783087</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M31" t="n">
-        <v>56.955352380707</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N31" t="n">
-        <v>45.9180696800844</v>
+        <v>45.91806968008437</v>
       </c>
       <c r="O31" t="n">
-        <v>67.44506079792964</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P31" t="n">
-        <v>81.2014108898193</v>
+        <v>81.20141088981929</v>
       </c>
       <c r="Q31" t="n">
         <v>42.34223702878295</v>
@@ -10351,10 +10351,10 @@
         <v>85.04107264134677</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>35.07435992029684</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q32" t="n">
         <v>98.3839527992952</v>
@@ -10430,7 +10430,7 @@
         <v>73.8395502629202</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10512,19 +10512,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
-        <v>57.82713911783087</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N34" t="n">
-        <v>45.9180696800844</v>
+        <v>45.91806968008437</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>81.20141088981929</v>
       </c>
       <c r="Q34" t="n">
         <v>42.34223702878295</v>
@@ -10588,10 +10588,10 @@
         <v>85.04107264134677</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>35.07435992029684</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,13 +10600,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R35" t="n">
         <v>42.58424007769262</v>
@@ -10667,7 +10667,7 @@
         <v>73.8395502629202</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>61.47076291397909</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10749,19 +10749,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>57.82713911783087</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M37" t="n">
-        <v>56.955352380707</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N37" t="n">
-        <v>45.9180696800844</v>
+        <v>45.91806968008437</v>
       </c>
       <c r="O37" t="n">
-        <v>67.44506079792964</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P37" t="n">
-        <v>81.2014108898193</v>
+        <v>81.20141088981929</v>
       </c>
       <c r="Q37" t="n">
         <v>42.34223702878295</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>35.07435992029684</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,13 +10837,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R38" t="n">
         <v>42.58424007769262</v>
@@ -10904,7 +10904,7 @@
         <v>73.8395502629202</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>61.47076291397909</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -10986,19 +10986,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>57.82713911783087</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M40" t="n">
-        <v>56.955352380707</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N40" t="n">
-        <v>45.9180696800844</v>
+        <v>45.91806968008437</v>
       </c>
       <c r="O40" t="n">
-        <v>67.44506079792964</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P40" t="n">
-        <v>81.2014108898193</v>
+        <v>81.20141088981929</v>
       </c>
       <c r="Q40" t="n">
         <v>42.34223702878295</v>
@@ -11062,10 +11062,10 @@
         <v>85.04107264134677</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>35.07435992029684</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,10 +11074,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q41" t="n">
         <v>98.3839527992952</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11223,19 +11223,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N43" t="n">
-        <v>45.9180696800844</v>
+        <v>45.91806968008437</v>
       </c>
       <c r="O43" t="n">
-        <v>67.44506079792964</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P43" t="n">
-        <v>81.2014108898193</v>
+        <v>81.20141088981929</v>
       </c>
       <c r="Q43" t="n">
         <v>42.34223702878295</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>35.07435992029684</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q44" t="n">
-        <v>91.29242921516942</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>45.91806968008437</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>81.20141088981929</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22561,16 +22561,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G2" t="n">
-        <v>418.0934080885264</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H2" t="n">
-        <v>339.3940753414475</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I2" t="n">
-        <v>212.2972214058836</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J2" t="n">
-        <v>13.57063122957307</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22579,7 +22579,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>78.8318885537511</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -22591,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.285509237068567</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>148.0982088582942</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S2" t="n">
-        <v>210.5456649893907</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T2" t="n">
-        <v>219.2056731633497</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U2" t="n">
-        <v>250.09096030272</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V2" t="n">
         <v>320.879783609152</v>
@@ -22640,31 +22640,31 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G3" t="n">
-        <v>148.3461201365529</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H3" t="n">
-        <v>121.887004794376</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I3" t="n">
-        <v>93.64366449363538</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J3" t="n">
-        <v>14.8271391275419</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>35.26465785350914</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>17.29827403488881</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27.38196984081287</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>109.9788170619971</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S3" t="n">
-        <v>184.1891195141138</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T3" t="n">
-        <v>213.3647520849204</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U3" t="n">
-        <v>237.2018534220153</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V3" t="n">
         <v>240.6489209154022</v>
@@ -22719,19 +22719,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G4" t="n">
-        <v>168.3666990440678</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H4" t="n">
-        <v>162.8541593486954</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I4" t="n">
-        <v>154.8063951475636</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J4" t="n">
-        <v>96.62044264882138</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K4" t="n">
-        <v>28.2164366317142</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.07363936789694</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q4" t="n">
-        <v>99.24268633557031</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R4" t="n">
-        <v>188.4086946307534</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S4" t="n">
-        <v>229.6160128400592</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T4" t="n">
-        <v>222.3341433135066</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U4" t="n">
-        <v>288.6383346476701</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V4" t="n">
         <v>245.1090151844499</v>
@@ -22816,13 +22816,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>56.42683163149823</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>65.20892354519972</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -22892,7 +22892,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>20.44120180197424</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -22901,7 +22901,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>11.13860007154486</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -23035,16 +23035,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G8" t="n">
-        <v>417.9658102901039</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H8" t="n">
-        <v>338.0873143883533</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I8" t="n">
-        <v>207.3780072822006</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J8" t="n">
-        <v>112.3155342172161</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23056,28 +23056,28 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>51.65417350500871</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>65.2089235451997</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>133.0864964302902</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>140.0829936531375</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S8" t="n">
-        <v>207.6380301578382</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T8" t="n">
-        <v>218.6471138007553</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U8" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V8" t="n">
         <v>320.879783609152</v>
@@ -23114,22 +23114,22 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>148.2778492956328</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H9" t="n">
-        <v>121.2276521991739</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I9" t="n">
-        <v>91.29311141809657</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J9" t="n">
-        <v>8.377041828155711</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>20.44120180197424</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -23138,25 +23138,25 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.13860007154486</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>32.7642952373794</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>83.41864916277152</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>105.7400362546942</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S9" t="n">
-        <v>182.9210185873741</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T9" t="n">
-        <v>213.0895726866503</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U9" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
@@ -23193,49 +23193,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G10" t="n">
-        <v>168.3094630644065</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H10" t="n">
-        <v>162.3452794567983</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I10" t="n">
-        <v>153.0851531410239</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J10" t="n">
-        <v>92.57385888677204</v>
+        <v>89.79898650365654</v>
       </c>
       <c r="K10" t="n">
-        <v>21.56665644925431</v>
+        <v>17.00668871668184</v>
       </c>
       <c r="L10" t="n">
-        <v>79.2580209984983</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>79.55121249250524</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>87.81973069401728</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>11.15120779141444</v>
+        <v>6.404274245706759</v>
       </c>
       <c r="Q10" t="n">
-        <v>94.44995352957361</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R10" t="n">
-        <v>185.8351568543492</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S10" t="n">
-        <v>228.6185458126902</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T10" t="n">
-        <v>222.0895895822268</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U10" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V10" t="n">
         <v>245.1090151844499</v>
@@ -23284,10 +23284,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>64.9282684572851</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>35.07435992029687</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23296,13 +23296,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>11.0645038884594</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>51.95968297934965</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>98.3839527992952</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>119.8967829935966</v>
@@ -23363,7 +23363,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>29.89154616318334</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23521,10 +23521,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>64.9282684572851</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>35.07435992029687</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23533,13 +23533,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>11.0645038884594</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>51.95968297934965</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>98.3839527992952</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>119.8967829935966</v>
@@ -23600,7 +23600,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>29.89154616318334</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23758,10 +23758,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>64.9282684572851</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>35.07435992029687</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -23770,10 +23770,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>11.0645038884594</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>51.95968297934965</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -23837,7 +23837,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>29.89154616318334</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23855,7 +23855,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>61.47076291397906</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>95.06472434781182</v>
@@ -23928,7 +23928,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>67.44506079792963</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -23995,10 +23995,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>64.92826845728513</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>35.0743599202969</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -24007,16 +24007,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>11.06450388845946</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>51.95968297934968</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>119.8967829935967</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S20" t="n">
         <v>200.3151913159098</v>
@@ -24074,7 +24074,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>29.89154616318336</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24153,7 +24153,7 @@
         <v>82.38259262861192</v>
       </c>
       <c r="K22" t="n">
-        <v>4.819275353807953</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24229,13 +24229,13 @@
         <v>194.9890333072825</v>
       </c>
       <c r="J23" t="n">
-        <v>85.04107264134677</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>64.92826845728513</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>35.0743599202969</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -24244,16 +24244,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>11.06450388845946</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>51.95968297934968</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>98.3839527992952</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>162.4810230712893</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S23" t="n">
         <v>200.3151913159098</v>
@@ -24329,7 +24329,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>61.47076291397909</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>95.06472434781182</v>
@@ -24390,19 +24390,19 @@
         <v>82.38259262861192</v>
       </c>
       <c r="K25" t="n">
-        <v>4.819275353807953</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>56.955352380707</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>45.9180696800844</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>67.44506079792964</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -24469,10 +24469,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>64.92826845728513</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>35.0743599202969</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24481,16 +24481,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>11.06450388845946</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>51.95968297934968</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>98.3839527992952</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>119.8967829935967</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S26" t="n">
         <v>200.3151913159098</v>
@@ -24548,7 +24548,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>29.89154616318336</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24627,7 +24627,7 @@
         <v>82.38259262861192</v>
       </c>
       <c r="K28" t="n">
-        <v>4.819275353807953</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24706,10 +24706,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>64.92826845728513</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>35.0743599202969</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -24718,16 +24718,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>11.06450388845946</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>51.95968297934968</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>119.8967829935967</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S29" t="n">
         <v>200.3151913159098</v>
@@ -24785,7 +24785,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>29.89154616318336</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24864,7 +24864,7 @@
         <v>82.38259262861192</v>
       </c>
       <c r="K31" t="n">
-        <v>4.819275353807953</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24943,10 +24943,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>64.92826845728513</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>35.0743599202969</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -24955,16 +24955,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>11.06450388845946</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>51.95968297934968</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>119.8967829935967</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S32" t="n">
         <v>200.3151913159098</v>
@@ -25022,7 +25022,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>29.89154616318336</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25040,7 +25040,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>61.47076291397909</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>95.06472434781182</v>
@@ -25101,22 +25101,22 @@
         <v>82.38259262861192</v>
       </c>
       <c r="K34" t="n">
-        <v>4.819275353807953</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>56.955352380707</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>67.44506079792964</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>81.2014108898193</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>82.37952103582114</v>
@@ -25180,10 +25180,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>64.92826845728513</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>35.0743599202969</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -25192,16 +25192,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>11.06450388845946</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>51.95968297934968</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>98.3839527992952</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>119.8967829935967</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S35" t="n">
         <v>200.3151913159098</v>
@@ -25259,7 +25259,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>29.89154616318336</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25338,7 +25338,7 @@
         <v>82.38259262861192</v>
       </c>
       <c r="K37" t="n">
-        <v>4.819275353807953</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25414,13 +25414,13 @@
         <v>194.9890333072825</v>
       </c>
       <c r="J38" t="n">
-        <v>85.04107264134677</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>64.92826845728513</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>35.0743599202969</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -25429,16 +25429,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>11.06450388845946</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>51.95968297934968</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>98.3839527992952</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>119.8967829935967</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S38" t="n">
         <v>200.3151913159098</v>
@@ -25496,7 +25496,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>29.89154616318336</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25575,7 +25575,7 @@
         <v>82.38259262861192</v>
       </c>
       <c r="K40" t="n">
-        <v>4.819275353807953</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25654,10 +25654,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>64.92826845728513</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>35.0743599202969</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -25666,16 +25666,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>11.06450388845946</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>51.95968297934968</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>119.8967829935967</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S41" t="n">
         <v>200.3151913159098</v>
@@ -25727,13 +25727,13 @@
         <v>119.5670816411805</v>
       </c>
       <c r="I42" t="n">
-        <v>91.93475956663372</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J42" t="n">
-        <v>73.8395502629202</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>29.89154616318336</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25751,10 +25751,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>61.47076291397909</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>124.5627663855477</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S42" t="n">
         <v>179.7273236222959</v>
@@ -25812,13 +25812,13 @@
         <v>82.38259262861192</v>
       </c>
       <c r="K43" t="n">
-        <v>4.819275353807953</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L43" t="n">
-        <v>57.82713911783087</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>56.955352380707</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -25879,22 +25879,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.5787878714249</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H44" t="n">
-        <v>334.1237210430571</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I44" t="n">
-        <v>192.4573254860788</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J44" t="n">
-        <v>79.46749020986022</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>56.57491319468377</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>24.71128406284015</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -25906,22 +25906,22 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>42.51638489689415</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>158.355936723486</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S44" t="n">
-        <v>198.8187567921908</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T44" t="n">
-        <v>216.952923162988</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0497906853519</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25958,19 +25958,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.0707740458651</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H45" t="n">
-        <v>119.227741234312</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I45" t="n">
-        <v>90.72503104986799</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J45" t="n">
-        <v>70.51996274958896</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>24.21784236678039</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25988,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.98567517487726</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>122.3812483112375</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S45" t="n">
-        <v>179.0746866454165</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T45" t="n">
-        <v>212.2549141141216</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U45" t="n">
-        <v>237.183738547628</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26037,49 +26037,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.1358581311098</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H46" t="n">
-        <v>160.8017737771232</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I46" t="n">
-        <v>147.8643793287897</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J46" t="n">
-        <v>102.0962744798141</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K46" t="n">
-        <v>70.56688024483543</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L46" t="n">
-        <v>53.44770209726541</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>52.33785008490108</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>41.41036126824764</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>63.28146248584993</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>77.63873325000013</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>122.2551447347503</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R46" t="n">
-        <v>178.0292477626592</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S46" t="n">
-        <v>225.5930852933272</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T46" t="n">
-        <v>221.3478230490496</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6257433251451</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>416922.8895080395</v>
+        <v>436332.1185586564</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>417045.0365635273</v>
+        <v>436332.1185586564</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>364927.9852137773</v>
+        <v>436642.3969331166</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>397640.4284356642</v>
+        <v>436272.9011495971</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>397640.4284356642</v>
+        <v>436272.9011495971</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>403951.4898988756</v>
+        <v>436272.9011495971</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>411345.313060606</v>
+        <v>436272.9011495971</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>370365.6682109266</v>
+        <v>436272.9011495971</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>397640.4284356642</v>
+        <v>436272.9011495971</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>411345.313060606</v>
+        <v>436272.9011495971</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>398148.9058415136</v>
+        <v>436272.9011495971</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>397640.4284356642</v>
+        <v>436272.9011495971</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>385794.2070167245</v>
+        <v>436272.9011495971</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>393808.8063366421</v>
+        <v>436272.9011495971</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>370715.9996802894</v>
+        <v>436272.9011495971</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73079.20110371358</v>
+        <v>76934.72873613342</v>
       </c>
       <c r="C2" t="n">
-        <v>73903.90156547022</v>
+        <v>76934.72873613342</v>
       </c>
       <c r="D2" t="n">
-        <v>65714.07921050953</v>
+        <v>77514.11349620196</v>
       </c>
       <c r="E2" t="n">
-        <v>72698.25640282015</v>
+        <v>78769.07354358108</v>
       </c>
       <c r="F2" t="n">
-        <v>72698.25640282015</v>
+        <v>78769.07354358108</v>
       </c>
       <c r="G2" t="n">
-        <v>73689.99463275338</v>
+        <v>78769.07354358108</v>
       </c>
       <c r="H2" t="n">
-        <v>74851.88112959672</v>
+        <v>78769.07354358108</v>
       </c>
       <c r="I2" t="n">
-        <v>68412.22265321855</v>
+        <v>78769.07354358108</v>
       </c>
       <c r="J2" t="n">
-        <v>72698.25640282015</v>
+        <v>78769.07354358108</v>
       </c>
       <c r="K2" t="n">
-        <v>74851.88112959673</v>
+        <v>78769.07354358108</v>
       </c>
       <c r="L2" t="n">
-        <v>72778.15999516792</v>
+        <v>78769.07354358108</v>
       </c>
       <c r="M2" t="n">
-        <v>72698.25640282016</v>
+        <v>78769.07354358108</v>
       </c>
       <c r="N2" t="n">
-        <v>70836.70732270107</v>
+        <v>78769.07354358108</v>
       </c>
       <c r="O2" t="n">
-        <v>72096.14435868811</v>
+        <v>78769.07354358108</v>
       </c>
       <c r="P2" t="n">
-        <v>68743.96088902478</v>
+        <v>78769.07354358108</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>276009.2581920185</v>
+        <v>306594.2889031769</v>
       </c>
       <c r="C3" t="n">
-        <v>28902.46409672997</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>18639.93994907062</v>
       </c>
       <c r="E3" t="n">
-        <v>64221.33560780271</v>
+        <v>46735.18559752362</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>10872.30883199171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24952.62904266647</v>
+        <v>23682.20988303181</v>
       </c>
       <c r="C4" t="n">
-        <v>20651.38271236866</v>
+        <v>23682.20988303181</v>
       </c>
       <c r="D4" t="n">
-        <v>12461.56035740795</v>
+        <v>20884.87908985157</v>
       </c>
       <c r="E4" t="n">
-        <v>7713.416820537888</v>
+        <v>13784.23396129879</v>
       </c>
       <c r="F4" t="n">
-        <v>7713.416820537888</v>
+        <v>13784.23396129879</v>
       </c>
       <c r="G4" t="n">
-        <v>8705.15505047113</v>
+        <v>13784.23396129879</v>
       </c>
       <c r="H4" t="n">
-        <v>9867.04154731446</v>
+        <v>13784.23396129879</v>
       </c>
       <c r="I4" t="n">
-        <v>3427.38307093628</v>
+        <v>13784.23396129879</v>
       </c>
       <c r="J4" t="n">
-        <v>7713.416820537889</v>
+        <v>13784.23396129879</v>
       </c>
       <c r="K4" t="n">
-        <v>9867.04154731446</v>
+        <v>13784.23396129879</v>
       </c>
       <c r="L4" t="n">
-        <v>7793.320412885656</v>
+        <v>13784.23396129879</v>
       </c>
       <c r="M4" t="n">
-        <v>7713.416820537889</v>
+        <v>13784.23396129879</v>
       </c>
       <c r="N4" t="n">
-        <v>5851.867740418808</v>
+        <v>13784.23396129879</v>
       </c>
       <c r="O4" t="n">
-        <v>7111.304776405845</v>
+        <v>13784.23396129879</v>
       </c>
       <c r="P4" t="n">
-        <v>1998.391275520059</v>
+        <v>13784.23396129879</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39871.80989399894</v>
+        <v>40563.74085539449</v>
       </c>
       <c r="C5" t="n">
         <v>40563.74085539449</v>
       </c>
       <c r="D5" t="n">
-        <v>40563.74085539449</v>
+        <v>41038.22012697312</v>
       </c>
       <c r="E5" t="n">
         <v>8678.759586280614</v>
@@ -26487,31 +26487,31 @@
         <v>8678.759586280614</v>
       </c>
       <c r="H5" t="n">
-        <v>8678.759586280612</v>
+        <v>8678.759586280614</v>
       </c>
       <c r="I5" t="n">
-        <v>8678.759586280612</v>
+        <v>8678.759586280614</v>
       </c>
       <c r="J5" t="n">
-        <v>8678.759586280612</v>
+        <v>8678.759586280614</v>
       </c>
       <c r="K5" t="n">
-        <v>8678.759586280612</v>
+        <v>8678.759586280614</v>
       </c>
       <c r="L5" t="n">
-        <v>8678.759586280612</v>
+        <v>8678.759586280614</v>
       </c>
       <c r="M5" t="n">
-        <v>8678.759586280612</v>
+        <v>8678.759586280614</v>
       </c>
       <c r="N5" t="n">
-        <v>8678.759586280612</v>
+        <v>8678.759586280614</v>
       </c>
       <c r="O5" t="n">
-        <v>8678.759586280612</v>
+        <v>8678.759586280614</v>
       </c>
       <c r="P5" t="n">
-        <v>9034.86667628599</v>
+        <v>8678.759586280614</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-267754.4960249703</v>
+        <v>-309004.4083781937</v>
       </c>
       <c r="C6" t="n">
-        <v>-16213.6860990229</v>
+        <v>-2410.119475016878</v>
       </c>
       <c r="D6" t="n">
-        <v>12688.7779977071</v>
+        <v>-18095.15180059295</v>
       </c>
       <c r="E6" t="n">
-        <v>-7915.255611801054</v>
+        <v>-5361.244455387063</v>
       </c>
       <c r="F6" t="n">
-        <v>56306.07999600164</v>
+        <v>41373.94114213657</v>
       </c>
       <c r="G6" t="n">
-        <v>56306.07999600164</v>
+        <v>41373.94114213657</v>
       </c>
       <c r="H6" t="n">
-        <v>56306.07999600164</v>
+        <v>41373.94114213657</v>
       </c>
       <c r="I6" t="n">
-        <v>56306.07999600165</v>
+        <v>41373.94114213657</v>
       </c>
       <c r="J6" t="n">
-        <v>56306.07999600164</v>
+        <v>41373.94114213657</v>
       </c>
       <c r="K6" t="n">
-        <v>56306.07999600166</v>
+        <v>41373.94114213657</v>
       </c>
       <c r="L6" t="n">
-        <v>56306.07999600166</v>
+        <v>41373.94114213657</v>
       </c>
       <c r="M6" t="n">
-        <v>56306.07999600166</v>
+        <v>41373.94114213657</v>
       </c>
       <c r="N6" t="n">
-        <v>56306.07999600165</v>
+        <v>41373.94114213657</v>
       </c>
       <c r="O6" t="n">
-        <v>56306.07999600165</v>
+        <v>41373.94114213657</v>
       </c>
       <c r="P6" t="n">
-        <v>46838.39410522702</v>
+        <v>41373.94114213657</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>286.431646513713</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="C3" t="n">
         <v>318.1715988713071</v>
       </c>
       <c r="D3" t="n">
-        <v>318.1715988713071</v>
+        <v>339.9367030721617</v>
       </c>
       <c r="E3" t="n">
         <v>398.1082379027804</v>
@@ -26779,7 +26779,7 @@
         <v>398.1082379027804</v>
       </c>
       <c r="P3" t="n">
-        <v>414.443425517706</v>
+        <v>398.1082379027804</v>
       </c>
     </row>
     <row r="4">
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>286.431646513713</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="C3" t="n">
-        <v>31.73995235759418</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>21.76510420085452</v>
       </c>
       <c r="E3" t="n">
-        <v>79.93663903147325</v>
+        <v>58.17153483061878</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>16.33518761492559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.151484006085277</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H2" t="n">
-        <v>11.79263557732085</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I2" t="n">
-        <v>44.3925871446027</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J2" t="n">
-        <v>97.7307656614804</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K2" t="n">
-        <v>146.4730836390702</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L2" t="n">
-        <v>181.7128122903026</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M2" t="n">
-        <v>202.1905159835216</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N2" t="n">
-        <v>205.4621699158114</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O2" t="n">
-        <v>194.0121008303009</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P2" t="n">
-        <v>165.5848394300706</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q2" t="n">
-        <v>124.3473184621416</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R2" t="n">
-        <v>72.33190719725437</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S2" t="n">
-        <v>26.23944178866829</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T2" t="n">
-        <v>5.040621236638304</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09211872048682217</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6160982585389299</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H3" t="n">
-        <v>5.950212128520717</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I3" t="n">
-        <v>21.21215495408158</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J3" t="n">
-        <v>58.20777450520653</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K3" t="n">
-        <v>99.48635782731483</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L3" t="n">
-        <v>133.7716854779374</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M3" t="n">
-        <v>156.1052473499736</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N3" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O3" t="n">
-        <v>146.5854483814093</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P3" t="n">
-        <v>117.6477455274909</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q3" t="n">
-        <v>78.6444022654255</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R3" t="n">
-        <v>38.25213573630304</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S3" t="n">
-        <v>11.44375493382617</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T3" t="n">
-        <v>2.483308331567001</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04053278016703487</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5165160838771873</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H4" t="n">
-        <v>4.59229754574445</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I4" t="n">
-        <v>15.53304732241578</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J4" t="n">
-        <v>36.51768713011714</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K4" t="n">
-        <v>60.00977774500411</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L4" t="n">
-        <v>76.79185487025019</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M4" t="n">
-        <v>80.96624394813034</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N4" t="n">
-        <v>79.04104763549726</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O4" t="n">
-        <v>73.00720065565919</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P4" t="n">
-        <v>62.47027254456452</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q4" t="n">
-        <v>43.25117862357066</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R4" t="n">
-        <v>23.22444137142334</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S4" t="n">
-        <v>9.001466661750616</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T4" t="n">
-        <v>2.206932358384345</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02817360457511934</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31305,19 +31305,19 @@
         <v>215.5108943892581</v>
       </c>
       <c r="P5" t="n">
-        <v>183.9335623404725</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q5" t="n">
         <v>138.1264452165381</v>
       </c>
       <c r="R5" t="n">
-        <v>80.34712240241105</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S5" t="n">
         <v>29.14707662022075</v>
       </c>
       <c r="T5" t="n">
-        <v>5.599180599232749</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U5" t="n">
         <v>0.1023265443606213</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6843690994590379</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H6" t="n">
         <v>6.609564723722816</v>
@@ -31390,7 +31390,7 @@
         <v>87.35911522217475</v>
       </c>
       <c r="R6" t="n">
-        <v>42.4909165436059</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S6" t="n">
         <v>12.7118558605659</v>
@@ -31436,10 +31436,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5737520635384226</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H7" t="n">
-        <v>5.101177437641615</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I7" t="n">
         <v>17.25428932895548</v>
@@ -31451,16 +31451,16 @@
         <v>66.65955792746399</v>
       </c>
       <c r="L7" t="n">
-        <v>85.3012840646124</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M7" t="n">
-        <v>89.9382439235729</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N7" t="n">
         <v>87.79971350492977</v>
       </c>
       <c r="O7" t="n">
-        <v>81.09724621723089</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P7" t="n">
         <v>69.39270412104702</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.279081804507766</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H8" t="n">
-        <v>13.09939653041517</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I8" t="n">
-        <v>49.31180126828571</v>
+        <v>52.68506430226941</v>
       </c>
       <c r="J8" t="n">
-        <v>108.5604693053411</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K8" t="n">
-        <v>162.7040020901549</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L8" t="n">
-        <v>201.8487018648595</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M8" t="n">
-        <v>224.5955729057745</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N8" t="n">
-        <v>228.2297640828322</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O8" t="n">
-        <v>215.5108943892581</v>
+        <v>230.2533072552751</v>
       </c>
       <c r="P8" t="n">
-        <v>183.9335623404726</v>
+        <v>196.515870643842</v>
       </c>
       <c r="Q8" t="n">
-        <v>138.1264452165381</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R8" t="n">
-        <v>80.34712240241106</v>
+        <v>85.84341276123287</v>
       </c>
       <c r="S8" t="n">
-        <v>29.14707662022075</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T8" t="n">
-        <v>5.59918059923275</v>
+        <v>5.982202684214623</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.684369099459038</v>
+        <v>0.7311846066080459</v>
       </c>
       <c r="H9" t="n">
-        <v>6.609564723722816</v>
+        <v>7.061703963819812</v>
       </c>
       <c r="I9" t="n">
-        <v>23.56270802962039</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J9" t="n">
-        <v>64.65787180459272</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K9" t="n">
-        <v>110.5106014683483</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L9" t="n">
-        <v>148.5951415294723</v>
+        <v>158.7600611847865</v>
       </c>
       <c r="M9" t="n">
         <v>173.4035213848624</v>
@@ -31618,25 +31618,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
-        <v>162.8288181506773</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
-        <v>130.6844818081035</v>
+        <v>139.624190361847</v>
       </c>
       <c r="Q9" t="n">
-        <v>87.35911522217475</v>
+        <v>93.33507364351127</v>
       </c>
       <c r="R9" t="n">
-        <v>42.49091654360591</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S9" t="n">
-        <v>12.7118558605659</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T9" t="n">
-        <v>2.758487729837086</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.04810425043473988</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5737520635384227</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H10" t="n">
-        <v>5.101177437641616</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I10" t="n">
-        <v>17.25428932895548</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J10" t="n">
-        <v>40.56427089216648</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K10" t="n">
-        <v>66.65955792746399</v>
+        <v>71.21952566003647</v>
       </c>
       <c r="L10" t="n">
-        <v>85.30128406461242</v>
+        <v>91.13647282036283</v>
       </c>
       <c r="M10" t="n">
-        <v>89.93824392357291</v>
+        <v>96.09063231267676</v>
       </c>
       <c r="N10" t="n">
-        <v>87.79971350492977</v>
+        <v>93.80581184940493</v>
       </c>
       <c r="O10" t="n">
-        <v>81.0972462172309</v>
+        <v>86.6448501535405</v>
       </c>
       <c r="P10" t="n">
-        <v>69.39270412104702</v>
+        <v>74.13963766675469</v>
       </c>
       <c r="Q10" t="n">
-        <v>48.04391142956737</v>
+        <v>51.33044216389641</v>
       </c>
       <c r="R10" t="n">
-        <v>25.79797914782761</v>
+        <v>27.56273661303133</v>
       </c>
       <c r="S10" t="n">
-        <v>9.998933689119598</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T10" t="n">
-        <v>2.451486089664169</v>
+        <v>2.619184433506819</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03343639702349135</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31767,7 +31767,7 @@
         <v>203.5813498175912</v>
       </c>
       <c r="L11" t="n">
-        <v>252.5606663430875</v>
+        <v>252.5606663430876</v>
       </c>
       <c r="M11" t="n">
         <v>281.0224045372727</v>
@@ -31788,7 +31788,7 @@
         <v>100.5333330619519</v>
       </c>
       <c r="S11" t="n">
-        <v>36.46991546214919</v>
+        <v>36.4699154621492</v>
       </c>
       <c r="T11" t="n">
         <v>7.00590476952531</v>
@@ -31867,7 +31867,7 @@
         <v>53.16622845048833</v>
       </c>
       <c r="S12" t="n">
-        <v>15.90555082564409</v>
+        <v>15.9055508256441</v>
       </c>
       <c r="T12" t="n">
         <v>3.451523307855237</v>
@@ -31913,13 +31913,13 @@
         <v>0.7179001011361613</v>
       </c>
       <c r="H13" t="n">
-        <v>6.382784535556058</v>
+        <v>6.382784535556057</v>
       </c>
       <c r="I13" t="n">
         <v>21.58921395053111</v>
       </c>
       <c r="J13" t="n">
-        <v>50.7555371503266</v>
+        <v>50.75553715032661</v>
       </c>
       <c r="K13" t="n">
         <v>83.40693902291036</v>
@@ -31937,7 +31937,7 @@
         <v>101.4719161133186</v>
       </c>
       <c r="P13" t="n">
-        <v>86.82675405014078</v>
+        <v>86.82675405014079</v>
       </c>
       <c r="Q13" t="n">
         <v>60.11434392331984</v>
@@ -32004,7 +32004,7 @@
         <v>203.5813498175912</v>
       </c>
       <c r="L14" t="n">
-        <v>252.5606663430875</v>
+        <v>252.5606663430876</v>
       </c>
       <c r="M14" t="n">
         <v>281.0224045372727</v>
@@ -32025,7 +32025,7 @@
         <v>100.5333330619519</v>
       </c>
       <c r="S14" t="n">
-        <v>36.46991546214919</v>
+        <v>36.4699154621492</v>
       </c>
       <c r="T14" t="n">
         <v>7.00590476952531</v>
@@ -32104,7 +32104,7 @@
         <v>53.16622845048833</v>
       </c>
       <c r="S15" t="n">
-        <v>15.90555082564409</v>
+        <v>15.9055508256441</v>
       </c>
       <c r="T15" t="n">
         <v>3.451523307855237</v>
@@ -32150,13 +32150,13 @@
         <v>0.7179001011361613</v>
       </c>
       <c r="H16" t="n">
-        <v>6.382784535556058</v>
+        <v>6.382784535556057</v>
       </c>
       <c r="I16" t="n">
         <v>21.58921395053111</v>
       </c>
       <c r="J16" t="n">
-        <v>50.7555371503266</v>
+        <v>50.75553715032661</v>
       </c>
       <c r="K16" t="n">
         <v>83.40693902291036</v>
@@ -32174,7 +32174,7 @@
         <v>101.4719161133186</v>
       </c>
       <c r="P16" t="n">
-        <v>86.82675405014078</v>
+        <v>86.82675405014079</v>
       </c>
       <c r="Q16" t="n">
         <v>60.11434392331984</v>
@@ -32241,7 +32241,7 @@
         <v>203.5813498175912</v>
       </c>
       <c r="L17" t="n">
-        <v>252.5606663430875</v>
+        <v>252.5606663430876</v>
       </c>
       <c r="M17" t="n">
         <v>281.0224045372727</v>
@@ -32262,7 +32262,7 @@
         <v>100.5333330619519</v>
       </c>
       <c r="S17" t="n">
-        <v>36.46991546214919</v>
+        <v>36.4699154621492</v>
       </c>
       <c r="T17" t="n">
         <v>7.00590476952531</v>
@@ -32341,7 +32341,7 @@
         <v>53.16622845048833</v>
       </c>
       <c r="S18" t="n">
-        <v>15.90555082564409</v>
+        <v>15.9055508256441</v>
       </c>
       <c r="T18" t="n">
         <v>3.451523307855237</v>
@@ -32387,13 +32387,13 @@
         <v>0.7179001011361613</v>
       </c>
       <c r="H19" t="n">
-        <v>6.382784535556058</v>
+        <v>6.382784535556057</v>
       </c>
       <c r="I19" t="n">
         <v>21.58921395053111</v>
       </c>
       <c r="J19" t="n">
-        <v>50.7555371503266</v>
+        <v>50.75553715032661</v>
       </c>
       <c r="K19" t="n">
         <v>83.40693902291036</v>
@@ -32411,7 +32411,7 @@
         <v>101.4719161133186</v>
       </c>
       <c r="P19" t="n">
-        <v>86.82675405014078</v>
+        <v>86.82675405014079</v>
       </c>
       <c r="Q19" t="n">
         <v>60.11434392331984</v>
@@ -32469,7 +32469,7 @@
         <v>16.390456246922</v>
       </c>
       <c r="I20" t="n">
-        <v>61.70077524320379</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J20" t="n">
         <v>135.8349308812105</v>
@@ -32478,7 +32478,7 @@
         <v>203.5813498175912</v>
       </c>
       <c r="L20" t="n">
-        <v>252.5606663430875</v>
+        <v>252.5606663430876</v>
       </c>
       <c r="M20" t="n">
         <v>281.0224045372727</v>
@@ -32499,13 +32499,13 @@
         <v>100.5333330619519</v>
       </c>
       <c r="S20" t="n">
-        <v>36.46991546214919</v>
+        <v>36.4699154621492</v>
       </c>
       <c r="T20" t="n">
-        <v>7.005904769525309</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1280348101797885</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8563082853003201</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H21" t="n">
-        <v>8.27013528171625</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I21" t="n">
         <v>29.48254403336629</v>
@@ -32575,16 +32575,16 @@
         <v>109.3070014709672</v>
       </c>
       <c r="R21" t="n">
-        <v>53.16622845048832</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S21" t="n">
-        <v>15.90555082564409</v>
+        <v>15.9055508256441</v>
       </c>
       <c r="T21" t="n">
-        <v>3.451523307855236</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05633607140133687</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,19 +32624,19 @@
         <v>0.7179001011361613</v>
       </c>
       <c r="H22" t="n">
-        <v>6.382784535556056</v>
+        <v>6.382784535556057</v>
       </c>
       <c r="I22" t="n">
         <v>21.58921395053111</v>
       </c>
       <c r="J22" t="n">
-        <v>50.7555371503266</v>
+        <v>50.75553715032661</v>
       </c>
       <c r="K22" t="n">
-        <v>83.40693902291035</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L22" t="n">
-        <v>106.7321659452798</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M22" t="n">
         <v>112.5341040353712</v>
@@ -32645,16 +32645,16 @@
         <v>109.8582945675001</v>
       </c>
       <c r="O22" t="n">
-        <v>101.4719161133185</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P22" t="n">
-        <v>86.82675405014078</v>
+        <v>86.82675405014079</v>
       </c>
       <c r="Q22" t="n">
         <v>60.11434392331984</v>
       </c>
       <c r="R22" t="n">
-        <v>32.27939909290411</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S22" t="n">
         <v>12.51104085343655</v>
@@ -32663,7 +32663,7 @@
         <v>3.067391341218143</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03915818733469975</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>16.390456246922</v>
       </c>
       <c r="I23" t="n">
-        <v>61.70077524320379</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J23" t="n">
         <v>135.8349308812105</v>
@@ -32715,7 +32715,7 @@
         <v>203.5813498175912</v>
       </c>
       <c r="L23" t="n">
-        <v>252.5606663430875</v>
+        <v>252.5606663430876</v>
       </c>
       <c r="M23" t="n">
         <v>281.0224045372727</v>
@@ -32736,13 +32736,13 @@
         <v>100.5333330619519</v>
       </c>
       <c r="S23" t="n">
-        <v>36.46991546214919</v>
+        <v>36.4699154621492</v>
       </c>
       <c r="T23" t="n">
-        <v>7.005904769525309</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1280348101797885</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8563082853003201</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H24" t="n">
-        <v>8.27013528171625</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I24" t="n">
         <v>29.48254403336629</v>
@@ -32812,16 +32812,16 @@
         <v>109.3070014709672</v>
       </c>
       <c r="R24" t="n">
-        <v>53.16622845048832</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S24" t="n">
-        <v>15.90555082564409</v>
+        <v>15.9055508256441</v>
       </c>
       <c r="T24" t="n">
-        <v>3.451523307855236</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05633607140133687</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,19 +32861,19 @@
         <v>0.7179001011361613</v>
       </c>
       <c r="H25" t="n">
-        <v>6.382784535556056</v>
+        <v>6.382784535556057</v>
       </c>
       <c r="I25" t="n">
         <v>21.58921395053111</v>
       </c>
       <c r="J25" t="n">
-        <v>50.7555371503266</v>
+        <v>50.75553715032661</v>
       </c>
       <c r="K25" t="n">
-        <v>83.40693902291035</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L25" t="n">
-        <v>106.7321659452798</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M25" t="n">
         <v>112.5341040353712</v>
@@ -32882,16 +32882,16 @@
         <v>109.8582945675001</v>
       </c>
       <c r="O25" t="n">
-        <v>101.4719161133185</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P25" t="n">
-        <v>86.82675405014078</v>
+        <v>86.82675405014079</v>
       </c>
       <c r="Q25" t="n">
         <v>60.11434392331984</v>
       </c>
       <c r="R25" t="n">
-        <v>32.27939909290411</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S25" t="n">
         <v>12.51104085343655</v>
@@ -32900,7 +32900,7 @@
         <v>3.067391341218143</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03915818733469975</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>16.390456246922</v>
       </c>
       <c r="I26" t="n">
-        <v>61.70077524320379</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J26" t="n">
         <v>135.8349308812105</v>
@@ -32952,7 +32952,7 @@
         <v>203.5813498175912</v>
       </c>
       <c r="L26" t="n">
-        <v>252.5606663430875</v>
+        <v>252.5606663430876</v>
       </c>
       <c r="M26" t="n">
         <v>281.0224045372727</v>
@@ -32973,13 +32973,13 @@
         <v>100.5333330619519</v>
       </c>
       <c r="S26" t="n">
-        <v>36.46991546214919</v>
+        <v>36.4699154621492</v>
       </c>
       <c r="T26" t="n">
-        <v>7.005904769525309</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1280348101797885</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8563082853003201</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H27" t="n">
-        <v>8.27013528171625</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I27" t="n">
         <v>29.48254403336629</v>
@@ -33049,16 +33049,16 @@
         <v>109.3070014709672</v>
       </c>
       <c r="R27" t="n">
-        <v>53.16622845048832</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S27" t="n">
-        <v>15.90555082564409</v>
+        <v>15.9055508256441</v>
       </c>
       <c r="T27" t="n">
-        <v>3.451523307855236</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05633607140133687</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,19 +33098,19 @@
         <v>0.7179001011361613</v>
       </c>
       <c r="H28" t="n">
-        <v>6.382784535556056</v>
+        <v>6.382784535556057</v>
       </c>
       <c r="I28" t="n">
         <v>21.58921395053111</v>
       </c>
       <c r="J28" t="n">
-        <v>50.7555371503266</v>
+        <v>50.75553715032661</v>
       </c>
       <c r="K28" t="n">
-        <v>83.40693902291035</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L28" t="n">
-        <v>106.7321659452798</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M28" t="n">
         <v>112.5341040353712</v>
@@ -33119,16 +33119,16 @@
         <v>109.8582945675001</v>
       </c>
       <c r="O28" t="n">
-        <v>101.4719161133185</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P28" t="n">
-        <v>86.82675405014078</v>
+        <v>86.82675405014079</v>
       </c>
       <c r="Q28" t="n">
         <v>60.11434392331984</v>
       </c>
       <c r="R28" t="n">
-        <v>32.27939909290411</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S28" t="n">
         <v>12.51104085343655</v>
@@ -33137,7 +33137,7 @@
         <v>3.067391341218143</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03915818733469975</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>16.390456246922</v>
       </c>
       <c r="I29" t="n">
-        <v>61.70077524320379</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J29" t="n">
         <v>135.8349308812105</v>
@@ -33189,7 +33189,7 @@
         <v>203.5813498175912</v>
       </c>
       <c r="L29" t="n">
-        <v>252.5606663430875</v>
+        <v>252.5606663430876</v>
       </c>
       <c r="M29" t="n">
         <v>281.0224045372727</v>
@@ -33210,13 +33210,13 @@
         <v>100.5333330619519</v>
       </c>
       <c r="S29" t="n">
-        <v>36.46991546214919</v>
+        <v>36.4699154621492</v>
       </c>
       <c r="T29" t="n">
-        <v>7.005904769525309</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1280348101797885</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8563082853003201</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H30" t="n">
-        <v>8.27013528171625</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I30" t="n">
         <v>29.48254403336629</v>
@@ -33286,16 +33286,16 @@
         <v>109.3070014709672</v>
       </c>
       <c r="R30" t="n">
-        <v>53.16622845048832</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S30" t="n">
-        <v>15.90555082564409</v>
+        <v>15.9055508256441</v>
       </c>
       <c r="T30" t="n">
-        <v>3.451523307855236</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05633607140133687</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,19 +33335,19 @@
         <v>0.7179001011361613</v>
       </c>
       <c r="H31" t="n">
-        <v>6.382784535556056</v>
+        <v>6.382784535556057</v>
       </c>
       <c r="I31" t="n">
         <v>21.58921395053111</v>
       </c>
       <c r="J31" t="n">
-        <v>50.7555371503266</v>
+        <v>50.75553715032661</v>
       </c>
       <c r="K31" t="n">
-        <v>83.40693902291035</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L31" t="n">
-        <v>106.7321659452798</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M31" t="n">
         <v>112.5341040353712</v>
@@ -33356,16 +33356,16 @@
         <v>109.8582945675001</v>
       </c>
       <c r="O31" t="n">
-        <v>101.4719161133185</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P31" t="n">
-        <v>86.82675405014078</v>
+        <v>86.82675405014079</v>
       </c>
       <c r="Q31" t="n">
         <v>60.11434392331984</v>
       </c>
       <c r="R31" t="n">
-        <v>32.27939909290411</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S31" t="n">
         <v>12.51104085343655</v>
@@ -33374,7 +33374,7 @@
         <v>3.067391341218143</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03915818733469975</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>16.390456246922</v>
       </c>
       <c r="I32" t="n">
-        <v>61.70077524320379</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J32" t="n">
         <v>135.8349308812105</v>
@@ -33426,7 +33426,7 @@
         <v>203.5813498175912</v>
       </c>
       <c r="L32" t="n">
-        <v>252.5606663430875</v>
+        <v>252.5606663430876</v>
       </c>
       <c r="M32" t="n">
         <v>281.0224045372727</v>
@@ -33447,13 +33447,13 @@
         <v>100.5333330619519</v>
       </c>
       <c r="S32" t="n">
-        <v>36.46991546214919</v>
+        <v>36.4699154621492</v>
       </c>
       <c r="T32" t="n">
-        <v>7.005904769525309</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1280348101797885</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8563082853003201</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H33" t="n">
-        <v>8.27013528171625</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I33" t="n">
         <v>29.48254403336629</v>
@@ -33523,16 +33523,16 @@
         <v>109.3070014709672</v>
       </c>
       <c r="R33" t="n">
-        <v>53.16622845048832</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S33" t="n">
-        <v>15.90555082564409</v>
+        <v>15.9055508256441</v>
       </c>
       <c r="T33" t="n">
-        <v>3.451523307855236</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05633607140133687</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,19 +33572,19 @@
         <v>0.7179001011361613</v>
       </c>
       <c r="H34" t="n">
-        <v>6.382784535556056</v>
+        <v>6.382784535556057</v>
       </c>
       <c r="I34" t="n">
         <v>21.58921395053111</v>
       </c>
       <c r="J34" t="n">
-        <v>50.7555371503266</v>
+        <v>50.75553715032661</v>
       </c>
       <c r="K34" t="n">
-        <v>83.40693902291035</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L34" t="n">
-        <v>106.7321659452798</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M34" t="n">
         <v>112.5341040353712</v>
@@ -33593,16 +33593,16 @@
         <v>109.8582945675001</v>
       </c>
       <c r="O34" t="n">
-        <v>101.4719161133185</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P34" t="n">
-        <v>86.82675405014078</v>
+        <v>86.82675405014079</v>
       </c>
       <c r="Q34" t="n">
         <v>60.11434392331984</v>
       </c>
       <c r="R34" t="n">
-        <v>32.27939909290411</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S34" t="n">
         <v>12.51104085343655</v>
@@ -33611,7 +33611,7 @@
         <v>3.067391341218143</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03915818733469975</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>16.390456246922</v>
       </c>
       <c r="I35" t="n">
-        <v>61.70077524320379</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J35" t="n">
         <v>135.8349308812105</v>
@@ -33663,7 +33663,7 @@
         <v>203.5813498175912</v>
       </c>
       <c r="L35" t="n">
-        <v>252.5606663430875</v>
+        <v>252.5606663430876</v>
       </c>
       <c r="M35" t="n">
         <v>281.0224045372727</v>
@@ -33684,13 +33684,13 @@
         <v>100.5333330619519</v>
       </c>
       <c r="S35" t="n">
-        <v>36.46991546214919</v>
+        <v>36.4699154621492</v>
       </c>
       <c r="T35" t="n">
-        <v>7.005904769525309</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1280348101797885</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8563082853003201</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H36" t="n">
-        <v>8.27013528171625</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I36" t="n">
         <v>29.48254403336629</v>
@@ -33760,16 +33760,16 @@
         <v>109.3070014709672</v>
       </c>
       <c r="R36" t="n">
-        <v>53.16622845048832</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S36" t="n">
-        <v>15.90555082564409</v>
+        <v>15.9055508256441</v>
       </c>
       <c r="T36" t="n">
-        <v>3.451523307855236</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05633607140133687</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,19 +33809,19 @@
         <v>0.7179001011361613</v>
       </c>
       <c r="H37" t="n">
-        <v>6.382784535556056</v>
+        <v>6.382784535556057</v>
       </c>
       <c r="I37" t="n">
         <v>21.58921395053111</v>
       </c>
       <c r="J37" t="n">
-        <v>50.7555371503266</v>
+        <v>50.75553715032661</v>
       </c>
       <c r="K37" t="n">
-        <v>83.40693902291035</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L37" t="n">
-        <v>106.7321659452798</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M37" t="n">
         <v>112.5341040353712</v>
@@ -33830,16 +33830,16 @@
         <v>109.8582945675001</v>
       </c>
       <c r="O37" t="n">
-        <v>101.4719161133185</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P37" t="n">
-        <v>86.82675405014078</v>
+        <v>86.82675405014079</v>
       </c>
       <c r="Q37" t="n">
         <v>60.11434392331984</v>
       </c>
       <c r="R37" t="n">
-        <v>32.27939909290411</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S37" t="n">
         <v>12.51104085343655</v>
@@ -33848,7 +33848,7 @@
         <v>3.067391341218143</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03915818733469975</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>16.390456246922</v>
       </c>
       <c r="I38" t="n">
-        <v>61.70077524320379</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J38" t="n">
         <v>135.8349308812105</v>
@@ -33900,7 +33900,7 @@
         <v>203.5813498175912</v>
       </c>
       <c r="L38" t="n">
-        <v>252.5606663430875</v>
+        <v>252.5606663430876</v>
       </c>
       <c r="M38" t="n">
         <v>281.0224045372727</v>
@@ -33921,13 +33921,13 @@
         <v>100.5333330619519</v>
       </c>
       <c r="S38" t="n">
-        <v>36.46991546214919</v>
+        <v>36.4699154621492</v>
       </c>
       <c r="T38" t="n">
-        <v>7.005904769525309</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1280348101797885</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8563082853003201</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H39" t="n">
-        <v>8.27013528171625</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I39" t="n">
         <v>29.48254403336629</v>
@@ -33997,16 +33997,16 @@
         <v>109.3070014709672</v>
       </c>
       <c r="R39" t="n">
-        <v>53.16622845048832</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S39" t="n">
-        <v>15.90555082564409</v>
+        <v>15.9055508256441</v>
       </c>
       <c r="T39" t="n">
-        <v>3.451523307855236</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05633607140133687</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,19 +34046,19 @@
         <v>0.7179001011361613</v>
       </c>
       <c r="H40" t="n">
-        <v>6.382784535556056</v>
+        <v>6.382784535556057</v>
       </c>
       <c r="I40" t="n">
         <v>21.58921395053111</v>
       </c>
       <c r="J40" t="n">
-        <v>50.7555371503266</v>
+        <v>50.75553715032661</v>
       </c>
       <c r="K40" t="n">
-        <v>83.40693902291035</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L40" t="n">
-        <v>106.7321659452798</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M40" t="n">
         <v>112.5341040353712</v>
@@ -34067,16 +34067,16 @@
         <v>109.8582945675001</v>
       </c>
       <c r="O40" t="n">
-        <v>101.4719161133185</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P40" t="n">
-        <v>86.82675405014078</v>
+        <v>86.82675405014079</v>
       </c>
       <c r="Q40" t="n">
         <v>60.11434392331984</v>
       </c>
       <c r="R40" t="n">
-        <v>32.27939909290411</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S40" t="n">
         <v>12.51104085343655</v>
@@ -34085,7 +34085,7 @@
         <v>3.067391341218143</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03915818733469975</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>16.390456246922</v>
       </c>
       <c r="I41" t="n">
-        <v>61.70077524320379</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J41" t="n">
         <v>135.8349308812105</v>
@@ -34137,7 +34137,7 @@
         <v>203.5813498175912</v>
       </c>
       <c r="L41" t="n">
-        <v>252.5606663430875</v>
+        <v>252.5606663430876</v>
       </c>
       <c r="M41" t="n">
         <v>281.0224045372727</v>
@@ -34158,13 +34158,13 @@
         <v>100.5333330619519</v>
       </c>
       <c r="S41" t="n">
-        <v>36.46991546214919</v>
+        <v>36.4699154621492</v>
       </c>
       <c r="T41" t="n">
-        <v>7.005904769525309</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1280348101797885</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8563082853003201</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H42" t="n">
-        <v>8.27013528171625</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I42" t="n">
         <v>29.48254403336629</v>
@@ -34234,16 +34234,16 @@
         <v>109.3070014709672</v>
       </c>
       <c r="R42" t="n">
-        <v>53.16622845048832</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S42" t="n">
-        <v>15.90555082564409</v>
+        <v>15.9055508256441</v>
       </c>
       <c r="T42" t="n">
-        <v>3.451523307855236</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05633607140133687</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,19 +34283,19 @@
         <v>0.7179001011361613</v>
       </c>
       <c r="H43" t="n">
-        <v>6.382784535556056</v>
+        <v>6.382784535556057</v>
       </c>
       <c r="I43" t="n">
         <v>21.58921395053111</v>
       </c>
       <c r="J43" t="n">
-        <v>50.7555371503266</v>
+        <v>50.75553715032661</v>
       </c>
       <c r="K43" t="n">
-        <v>83.40693902291035</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L43" t="n">
-        <v>106.7321659452798</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M43" t="n">
         <v>112.5341040353712</v>
@@ -34304,16 +34304,16 @@
         <v>109.8582945675001</v>
       </c>
       <c r="O43" t="n">
-        <v>101.4719161133185</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P43" t="n">
-        <v>86.82675405014078</v>
+        <v>86.82675405014079</v>
       </c>
       <c r="Q43" t="n">
         <v>60.11434392331984</v>
       </c>
       <c r="R43" t="n">
-        <v>32.27939909290411</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S43" t="n">
         <v>12.51104085343655</v>
@@ -34322,7 +34322,7 @@
         <v>3.067391341218143</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03915818733469975</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,22 +34359,22 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.666104223186756</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H44" t="n">
-        <v>17.06298987571137</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I44" t="n">
-        <v>64.23248306440749</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J44" t="n">
-        <v>141.4085133126971</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K44" t="n">
-        <v>211.9347050801925</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L44" t="n">
-        <v>262.9237422005443</v>
+        <v>252.5606663430876</v>
       </c>
       <c r="M44" t="n">
         <v>281.0224045372727</v>
@@ -34383,25 +34383,25 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O44" t="n">
-        <v>280.7198179344578</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P44" t="n">
-        <v>239.5878699245347</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q44" t="n">
-        <v>179.9205124316589</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R44" t="n">
-        <v>104.6584194097552</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S44" t="n">
-        <v>37.96634998586825</v>
+        <v>36.4699154621492</v>
       </c>
       <c r="T44" t="n">
-        <v>7.29337123700003</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1332883378549405</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8914443492267637</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H45" t="n">
-        <v>8.6094756885848</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I45" t="n">
-        <v>30.692272550132</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J45" t="n">
-        <v>84.2219417837444</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K45" t="n">
-        <v>143.9487131819376</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L45" t="n">
         <v>169.0363433314465</v>
@@ -34468,19 +34468,19 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.792089210069</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R45" t="n">
-        <v>55.34774652479857</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S45" t="n">
-        <v>16.55818780252343</v>
+        <v>15.9055508256441</v>
       </c>
       <c r="T45" t="n">
-        <v>3.59314630236577</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05864765455439238</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7473569968352074</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H46" t="n">
-        <v>6.644683117316667</v>
+        <v>6.382784535556057</v>
       </c>
       <c r="I46" t="n">
-        <v>22.4750631411897</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J46" t="n">
-        <v>52.83813967624916</v>
+        <v>50.75553715032661</v>
       </c>
       <c r="K46" t="n">
-        <v>86.82929472321771</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L46" t="n">
-        <v>111.1116029658453</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M46" t="n">
-        <v>117.1516063311771</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N46" t="n">
-        <v>114.3660029793369</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O46" t="n">
-        <v>105.6355144253983</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P46" t="n">
-        <v>90.38943168995995</v>
+        <v>86.82675405014079</v>
       </c>
       <c r="Q46" t="n">
-        <v>62.58095725317359</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R46" t="n">
-        <v>33.60388823951759</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S46" t="n">
-        <v>13.02439420848265</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T46" t="n">
-        <v>3.19325262284134</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04076492710010227</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
